--- a/data/func/new_up_stream.xlsx
+++ b/data/func/new_up_stream.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="575">
   <si>
     <t xml:space="preserve">服务价值数</t>
   </si>
@@ -64,6 +64,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个机构以上规模公司占比</t>
     </r>
@@ -102,6 +103,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">银行</t>
     </r>
@@ -121,6 +123,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金融</t>
     </r>
@@ -172,6 +175,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">船东企业机构数量</t>
     </r>
@@ -193,6 +197,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">船东企业占比</t>
     </r>
@@ -216,6 +221,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">印度</t>
     </r>
@@ -240,6 +246,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">西班牙</t>
     </r>
@@ -264,6 +271,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">英国</t>
     </r>
@@ -288,6 +296,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">意大利</t>
     </r>
@@ -312,6 +321,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中国</t>
     </r>
@@ -336,6 +346,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">澳大利亚</t>
     </r>
@@ -360,6 +371,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">美国</t>
     </r>
@@ -384,6 +396,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴西</t>
     </r>
@@ -408,6 +421,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">印尼</t>
     </r>
@@ -432,6 +446,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">法国</t>
     </r>
@@ -456,6 +471,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">德国</t>
     </r>
@@ -480,6 +496,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">马来西亚</t>
     </r>
@@ -499,6 +516,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、土耳其（</t>
     </r>
@@ -523,6 +541,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荷兰</t>
     </r>
@@ -547,6 +566,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">丹麦</t>
     </r>
@@ -571,6 +591,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">埃及</t>
     </r>
@@ -595,6 +616,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">南非</t>
     </r>
@@ -619,6 +641,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日本</t>
     </r>
@@ -643,6 +666,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">希腊</t>
     </r>
@@ -667,6 +691,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">加拿大</t>
     </r>
@@ -691,6 +716,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">葡萄牙</t>
     </r>
@@ -715,6 +741,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">智利</t>
     </r>
@@ -739,6 +766,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比利时</t>
     </r>
@@ -763,6 +791,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">墨西哥</t>
     </r>
@@ -787,6 +816,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">越南</t>
     </r>
@@ -811,6 +841,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">瑞典</t>
     </r>
@@ -835,6 +866,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">挪威</t>
     </r>
@@ -859,6 +891,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿拉伯联合酋长国</t>
     </r>
@@ -883,6 +916,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴基斯坦</t>
     </r>
@@ -907,6 +941,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">俄罗斯</t>
     </r>
@@ -931,6 +966,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新西兰</t>
     </r>
@@ -955,6 +991,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿根廷</t>
     </r>
@@ -974,6 +1011,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、沙特阿拉伯</t>
     </r>
@@ -998,6 +1036,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">伊朗</t>
     </r>
@@ -1022,6 +1061,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新加坡</t>
     </r>
@@ -1046,6 +1086,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">韩国</t>
     </r>
@@ -1070,6 +1111,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">泰国</t>
     </r>
@@ -1094,6 +1136,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">委内瑞拉</t>
     </r>
@@ -1118,6 +1161,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">爱尔兰</t>
     </r>
@@ -1142,6 +1186,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">孟加拉国</t>
     </r>
@@ -1166,6 +1211,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">菲律宾</t>
     </r>
@@ -1190,6 +1236,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿尔及利亚</t>
     </r>
@@ -1214,6 +1261,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">瑞士</t>
     </r>
@@ -1233,6 +1281,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、以色列</t>
     </r>
@@ -1257,6 +1306,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">斯里兰卡</t>
     </r>
@@ -1281,6 +1331,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">波兰</t>
     </r>
@@ -1300,6 +1351,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、乌克兰</t>
     </r>
@@ -1324,6 +1376,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">芬兰</t>
     </r>
@@ -1348,6 +1401,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">突尼斯</t>
     </r>
@@ -1367,6 +1421,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、约旦</t>
     </r>
@@ -1391,6 +1446,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">哥伦比亚</t>
     </r>
@@ -1410,6 +1466,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、黎巴嫩</t>
     </r>
@@ -1434,6 +1491,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">塞浦路斯</t>
     </r>
@@ -1458,6 +1516,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴拿马</t>
     </r>
@@ -1482,6 +1541,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">摩洛哥</t>
     </r>
@@ -1506,6 +1566,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">肯尼亚</t>
     </r>
@@ -1525,6 +1586,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、罗马尼亚</t>
     </r>
@@ -1549,6 +1611,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴拉圭</t>
     </r>
@@ -1568,6 +1631,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、加纳</t>
     </r>
@@ -1587,6 +1651,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、马耳他</t>
     </r>
@@ -1611,6 +1676,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秘鲁</t>
     </r>
@@ -1630,6 +1696,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、尼日利亚</t>
     </r>
@@ -1649,6 +1716,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、乌拉圭</t>
     </r>
@@ -1673,6 +1741,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">爱沙尼亚</t>
     </r>
@@ -1692,6 +1761,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、保加利亚</t>
     </r>
@@ -1711,6 +1781,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、立陶宛</t>
     </r>
@@ -1730,6 +1801,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、危地马拉</t>
     </r>
@@ -1749,6 +1821,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、也门</t>
     </r>
@@ -1773,6 +1846,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">厄瓜多尔</t>
     </r>
@@ -1792,6 +1866,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、拉脱维亚</t>
     </r>
@@ -1816,6 +1891,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿曼</t>
     </r>
@@ -1835,6 +1911,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、奥地利</t>
     </r>
@@ -1854,6 +1931,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、冰岛</t>
     </r>
@@ -1873,6 +1951,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、科威特</t>
     </r>
@@ -1897,6 +1976,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴布新几内亚</t>
     </r>
@@ -1916,6 +1996,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、乔治亚州</t>
     </r>
@@ -1935,6 +2016,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、特立尼达和多巴哥</t>
     </r>
@@ -1954,6 +2036,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、牙买加</t>
     </r>
@@ -1978,6 +2061,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">科摩罗</t>
     </r>
@@ -1997,6 +2081,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、莫桑比克</t>
     </r>
@@ -2016,6 +2101,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、象牙海岸</t>
     </r>
@@ -2040,6 +2126,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴哈马群岛</t>
     </r>
@@ -2059,6 +2146,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、坦桑尼亚联合共和国</t>
     </r>
@@ -2083,6 +2171,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毛里求斯</t>
     </r>
@@ -2102,6 +2191,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、缅甸</t>
     </r>
@@ -2121,6 +2211,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、斯洛文尼亚</t>
     </r>
@@ -2145,6 +2236,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">贝宁</t>
     </r>
@@ -2164,6 +2256,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、柬埔寨</t>
     </r>
@@ -2183,6 +2276,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、马达加斯加</t>
     </r>
@@ -2202,6 +2296,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、叙利亚</t>
     </r>
@@ -2226,6 +2321,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴林</t>
     </r>
@@ -2245,6 +2341,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、多哥</t>
     </r>
@@ -2264,6 +2361,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、哥斯达黎加</t>
     </r>
@@ -2283,6 +2381,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、洪都拉斯</t>
     </r>
@@ -2302,6 +2401,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、喀麦隆</t>
     </r>
@@ -2321,6 +2421,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、尼加拉瓜</t>
     </r>
@@ -2340,6 +2441,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、苏丹</t>
     </r>
@@ -2364,6 +2466,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">安哥拉</t>
     </r>
@@ -2383,6 +2486,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、克罗地亚</t>
     </r>
@@ -2402,6 +2506,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、利比亚</t>
     </r>
@@ -2421,6 +2526,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、波多黎各</t>
     </r>
@@ -2440,6 +2546,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、萨尔瓦多</t>
     </r>
@@ -2464,6 +2571,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">玻利维亚</t>
     </r>
@@ -2483,6 +2591,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、多米尼加</t>
     </r>
@@ -2502,6 +2611,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、斐济</t>
     </r>
@@ -2521,6 +2631,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、捷克</t>
     </r>
@@ -2540,6 +2651,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、塞尔维亚</t>
     </r>
@@ -2559,6 +2671,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、塞内加尔</t>
     </r>
@@ -2583,6 +2696,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">安提瓜岛和巴布达</t>
     </r>
@@ -2602,6 +2716,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴巴多斯</t>
     </r>
@@ -2621,6 +2736,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">海地</t>
     </r>
@@ -2640,6 +2756,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">加蓬</t>
     </r>
@@ -2659,6 +2776,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣卢西亚</t>
     </r>
@@ -2678,6 +2796,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">苏里南</t>
     </r>
@@ -2697,6 +2816,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">乌干达</t>
     </r>
@@ -2716,6 +2836,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新西兰</t>
     </r>
@@ -2735,6 +2856,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">团聚</t>
     </r>
@@ -2759,6 +2881,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">几内亚</t>
     </r>
@@ -2778,6 +2901,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">利比里亚</t>
     </r>
@@ -2797,6 +2921,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">马拉维</t>
     </r>
@@ -2816,6 +2941,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">密克罗尼西亚联邦</t>
     </r>
@@ -2835,6 +2961,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣文森特和格林纳丁斯</t>
     </r>
@@ -2854,6 +2981,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">赞比亚</t>
     </r>
@@ -2878,6 +3006,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刚果共和国</t>
     </r>
@@ -2897,6 +3026,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圭亚那</t>
     </r>
@@ -2916,6 +3046,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">吉布提</t>
     </r>
@@ -2935,6 +3066,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卡塔尔</t>
     </r>
@@ -2954,6 +3086,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">马尔代夫</t>
     </r>
@@ -2973,6 +3106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">纳米比亚</t>
     </r>
@@ -2997,6 +3131,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">伯利兹</t>
     </r>
@@ -3016,6 +3151,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">布吉纳法索</t>
     </r>
@@ -3035,6 +3171,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">多米尼加</t>
     </r>
@@ -3054,6 +3191,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">冈比亚</t>
     </r>
@@ -3073,6 +3211,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">格林纳达</t>
     </r>
@@ -3092,6 +3231,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毛利塔尼亚</t>
     </r>
@@ -3111,6 +3251,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">塞拉利昂</t>
     </r>
@@ -3130,6 +3271,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">塞舌尔</t>
     </r>
@@ -3149,6 +3291,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣基茨和尼维斯</t>
     </r>
@@ -3168,6 +3311,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">瓦努阿图</t>
     </r>
@@ -3187,6 +3331,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文莱</t>
     </r>
@@ -3206,6 +3351,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">匈牙利</t>
     </r>
@@ -3225,6 +3371,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北马里亚纳</t>
     </r>
@@ -3249,6 +3396,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿塞拜疆</t>
     </r>
@@ -3268,6 +3416,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">厄立特里亚</t>
     </r>
@@ -3287,6 +3436,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">津巴布韦</t>
     </r>
@@ -3306,6 +3456,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">汤加</t>
     </r>
@@ -3325,6 +3476,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">伊拉克</t>
     </r>
@@ -3349,6 +3501,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿尔巴尼亚</t>
     </r>
@@ -3368,6 +3521,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">佛得角</t>
     </r>
@@ -3387,6 +3541,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">古巴</t>
     </r>
@@ -3406,6 +3561,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">马里</t>
     </r>
@@ -3425,6 +3581,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">马绍尔群岛</t>
     </r>
@@ -3444,6 +3601,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">尼泊尔</t>
     </r>
@@ -3463,6 +3621,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">萨摩亚</t>
     </r>
@@ -3487,6 +3646,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白俄罗斯</t>
     </r>
@@ -3506,6 +3666,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">蒙塞拉特</t>
     </r>
@@ -3525,6 +3686,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卢旺达</t>
     </r>
@@ -3544,6 +3706,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">摩纳哥</t>
     </r>
@@ -3563,6 +3726,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">尼日尔</t>
     </r>
@@ -3582,6 +3746,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣多美和普林西比</t>
     </r>
@@ -3601,6 +3766,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">斯洛伐克</t>
     </r>
@@ -3620,6 +3786,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所罗门群岛</t>
     </r>
@@ -3639,6 +3806,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">图瓦卢</t>
     </r>
@@ -3658,6 +3826,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亚美尼亚</t>
     </r>
@@ -3677,6 +3846,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中非共和国</t>
     </r>
@@ -3701,6 +3871,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">博茨瓦纳</t>
     </r>
@@ -3720,6 +3891,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">赤道几内亚</t>
     </r>
@@ -3739,6 +3911,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">东帝汶</t>
     </r>
@@ -3758,6 +3931,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">几内亚比绍</t>
     </r>
@@ -3777,6 +3951,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">莱索托</t>
     </r>
@@ -3796,6 +3971,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">摩尔多瓦</t>
     </r>
@@ -3815,6 +3991,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">帕劳</t>
     </r>
@@ -3834,6 +4011,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圣马力诺</t>
     </r>
@@ -3853,6 +4031,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">索马里</t>
     </r>
@@ -3872,6 +4051,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">土库曼斯坦</t>
     </r>
@@ -3891,6 +4071,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">乌兹别克斯坦</t>
     </r>
@@ -3910,6 +4091,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">西撒哈拉</t>
     </r>
@@ -3929,6 +4111,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">乍得</t>
     </r>
@@ -3948,6 +4131,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">南斯拉夫</t>
     </r>
@@ -4755,6 +4939,9 @@
     <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
+    <t xml:space="preserve">nullptr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Congo, The</t>
   </si>
   <si>
@@ -5145,25 +5332,25 @@
     <t xml:space="preserve">Virgin Islands, American</t>
   </si>
   <si>
+    <t xml:space="preserve">Northern Marianas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">格鲁吉亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechoslovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捷克斯洛伐克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks &amp; Caicos Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">总计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Marianas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">格鲁吉亚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechoslovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">捷克斯洛伐克</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks &amp; Caicos Islands</t>
   </si>
 </sst>
 </file>
@@ -5202,6 +5389,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -5217,6 +5405,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5310,7 +5499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5375,16 +5564,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5400,10 +5581,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5494,7 +5671,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.41"/>
@@ -5859,11 +6036,11 @@
   </sheetPr>
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="12.92"/>
@@ -9439,11 +9616,11 @@
   </sheetPr>
   <dimension ref="A1:N215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M124" activeCellId="0" sqref="M124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
@@ -9502,7 +9679,7 @@
       <c r="C2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="0" t="n">
         <v>334</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -9516,7 +9693,7 @@
       <c r="J2" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="K2" s="16" t="n">
+      <c r="K2" s="0" t="n">
         <v>863</v>
       </c>
       <c r="L2" s="1" t="n">
@@ -9538,7 +9715,7 @@
       <c r="C3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="0" t="n">
         <v>277</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -9552,7 +9729,7 @@
       <c r="J3" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K3" s="16" t="n">
+      <c r="K3" s="0" t="n">
         <v>763</v>
       </c>
       <c r="L3" s="1" t="n">
@@ -9574,7 +9751,7 @@
       <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="0" t="n">
         <v>253</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -9588,7 +9765,7 @@
       <c r="J4" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="16" t="n">
+      <c r="K4" s="0" t="n">
         <v>682</v>
       </c>
       <c r="L4" s="1" t="n">
@@ -9610,7 +9787,7 @@
       <c r="C5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="0" t="n">
         <v>245</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -9624,7 +9801,7 @@
       <c r="J5" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="16" t="n">
+      <c r="K5" s="0" t="n">
         <v>607</v>
       </c>
       <c r="L5" s="1" t="n">
@@ -9646,7 +9823,7 @@
       <c r="C6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="0" t="n">
         <v>223</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -9660,7 +9837,7 @@
       <c r="J6" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="K6" s="16" t="n">
+      <c r="K6" s="0" t="n">
         <v>392</v>
       </c>
       <c r="L6" s="1" t="n">
@@ -9682,7 +9859,7 @@
       <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="0" t="n">
         <v>204</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -9696,7 +9873,7 @@
       <c r="J7" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K7" s="16" t="n">
+      <c r="K7" s="0" t="n">
         <v>328</v>
       </c>
       <c r="L7" s="1" t="n">
@@ -9718,7 +9895,7 @@
       <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="0" t="n">
         <v>195</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -9732,7 +9909,7 @@
       <c r="J8" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K8" s="16" t="n">
+      <c r="K8" s="0" t="n">
         <v>283</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -9754,7 +9931,7 @@
       <c r="C9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="0" t="n">
         <v>171</v>
       </c>
       <c r="E9" s="1" t="n">
@@ -9768,7 +9945,7 @@
       <c r="J9" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="K9" s="16" t="n">
+      <c r="K9" s="0" t="n">
         <v>262</v>
       </c>
       <c r="L9" s="1" t="n">
@@ -9790,7 +9967,7 @@
       <c r="C10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="0" t="n">
         <v>155</v>
       </c>
       <c r="E10" s="1" t="n">
@@ -9804,7 +9981,7 @@
       <c r="J10" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="K10" s="16" t="n">
+      <c r="K10" s="0" t="n">
         <v>238</v>
       </c>
       <c r="L10" s="1" t="n">
@@ -9826,7 +10003,7 @@
       <c r="C11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="0" t="n">
         <v>152</v>
       </c>
       <c r="E11" s="1" t="n">
@@ -9840,7 +10017,7 @@
       <c r="J11" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="K11" s="16" t="n">
+      <c r="K11" s="0" t="n">
         <v>215</v>
       </c>
       <c r="L11" s="1" t="n">
@@ -9862,7 +10039,7 @@
       <c r="C12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="0" t="n">
         <v>148</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -9876,7 +10053,7 @@
       <c r="J12" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K12" s="16" t="n">
+      <c r="K12" s="0" t="n">
         <v>212</v>
       </c>
       <c r="L12" s="1" t="n">
@@ -9898,7 +10075,7 @@
       <c r="C13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="0" t="n">
         <v>128</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -9912,7 +10089,7 @@
       <c r="J13" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="K13" s="16" t="n">
+      <c r="K13" s="0" t="n">
         <v>199</v>
       </c>
       <c r="L13" s="1" t="n">
@@ -9934,7 +10111,7 @@
       <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="0" t="n">
         <v>128</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -9948,7 +10125,7 @@
       <c r="J14" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="K14" s="16" t="n">
+      <c r="K14" s="0" t="n">
         <v>185</v>
       </c>
       <c r="L14" s="1" t="n">
@@ -9970,7 +10147,7 @@
       <c r="C15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="0" t="n">
         <v>109</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -9984,7 +10161,7 @@
       <c r="J15" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="16" t="n">
+      <c r="K15" s="0" t="n">
         <v>182</v>
       </c>
       <c r="L15" s="1" t="n">
@@ -10006,7 +10183,7 @@
       <c r="C16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="0" t="n">
         <v>108</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -10020,7 +10197,7 @@
       <c r="J16" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="16" t="n">
+      <c r="K16" s="0" t="n">
         <v>176</v>
       </c>
       <c r="L16" s="1" t="n">
@@ -10042,7 +10219,7 @@
       <c r="C17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="0" t="n">
         <v>98</v>
       </c>
       <c r="E17" s="1" t="n">
@@ -10056,7 +10233,7 @@
       <c r="J17" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="16" t="n">
+      <c r="K17" s="0" t="n">
         <v>174</v>
       </c>
       <c r="L17" s="1" t="n">
@@ -10078,7 +10255,7 @@
       <c r="C18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="0" t="n">
         <v>97</v>
       </c>
       <c r="E18" s="1" t="n">
@@ -10092,7 +10269,7 @@
       <c r="J18" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="K18" s="16" t="n">
+      <c r="K18" s="0" t="n">
         <v>172</v>
       </c>
       <c r="L18" s="1" t="n">
@@ -10114,7 +10291,7 @@
       <c r="C19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="0" t="n">
         <v>93</v>
       </c>
       <c r="E19" s="1" t="n">
@@ -10128,7 +10305,7 @@
       <c r="J19" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K19" s="16" t="n">
+      <c r="K19" s="0" t="n">
         <v>156</v>
       </c>
       <c r="L19" s="1" t="n">
@@ -10150,7 +10327,7 @@
       <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="0" t="n">
         <v>91</v>
       </c>
       <c r="E20" s="1" t="n">
@@ -10164,7 +10341,7 @@
       <c r="J20" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="K20" s="16" t="n">
+      <c r="K20" s="0" t="n">
         <v>154</v>
       </c>
       <c r="L20" s="1" t="n">
@@ -10186,7 +10363,7 @@
       <c r="C21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="0" t="n">
         <v>88</v>
       </c>
       <c r="E21" s="1" t="n">
@@ -10200,7 +10377,7 @@
       <c r="J21" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="K21" s="16" t="n">
+      <c r="K21" s="0" t="n">
         <v>132</v>
       </c>
       <c r="L21" s="1" t="n">
@@ -10222,7 +10399,7 @@
       <c r="C22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E22" s="1" t="n">
@@ -10236,7 +10413,7 @@
       <c r="J22" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K22" s="16" t="n">
+      <c r="K22" s="0" t="n">
         <v>127</v>
       </c>
       <c r="L22" s="1" t="n">
@@ -10258,7 +10435,7 @@
       <c r="C23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="0" t="n">
         <v>85</v>
       </c>
       <c r="E23" s="1" t="n">
@@ -10272,7 +10449,7 @@
       <c r="J23" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K23" s="16" t="n">
+      <c r="K23" s="0" t="n">
         <v>126</v>
       </c>
       <c r="L23" s="1" t="n">
@@ -10294,7 +10471,7 @@
       <c r="C24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E24" s="1" t="n">
@@ -10308,7 +10485,7 @@
       <c r="J24" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="K24" s="16" t="n">
+      <c r="K24" s="0" t="n">
         <v>124</v>
       </c>
       <c r="L24" s="1" t="n">
@@ -10330,7 +10507,7 @@
       <c r="C25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="0" t="n">
         <v>78</v>
       </c>
       <c r="E25" s="1" t="n">
@@ -10344,7 +10521,7 @@
       <c r="J25" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="K25" s="16" t="n">
+      <c r="K25" s="0" t="n">
         <v>121</v>
       </c>
       <c r="L25" s="1" t="n">
@@ -10366,7 +10543,7 @@
       <c r="C26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="16" t="n">
+      <c r="D26" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -10380,7 +10557,7 @@
       <c r="J26" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="K26" s="16" t="n">
+      <c r="K26" s="0" t="n">
         <v>120</v>
       </c>
       <c r="L26" s="1" t="n">
@@ -10402,7 +10579,7 @@
       <c r="C27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="16" t="n">
+      <c r="D27" s="0" t="n">
         <v>73</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -10416,7 +10593,7 @@
       <c r="J27" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="K27" s="16" t="n">
+      <c r="K27" s="0" t="n">
         <v>114</v>
       </c>
       <c r="L27" s="1" t="n">
@@ -10438,7 +10615,7 @@
       <c r="C28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="16" t="n">
+      <c r="D28" s="0" t="n">
         <v>72</v>
       </c>
       <c r="E28" s="1" t="n">
@@ -10452,7 +10629,7 @@
       <c r="J28" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K28" s="16" t="n">
+      <c r="K28" s="0" t="n">
         <v>111</v>
       </c>
       <c r="L28" s="1" t="n">
@@ -10474,7 +10651,7 @@
       <c r="C29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="16" t="n">
+      <c r="D29" s="0" t="n">
         <v>70</v>
       </c>
       <c r="E29" s="1" t="n">
@@ -10488,7 +10665,7 @@
       <c r="J29" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="K29" s="16" t="n">
+      <c r="K29" s="0" t="n">
         <v>111</v>
       </c>
       <c r="L29" s="1" t="n">
@@ -10510,7 +10687,7 @@
       <c r="C30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="16" t="n">
+      <c r="D30" s="0" t="n">
         <v>69</v>
       </c>
       <c r="E30" s="1" t="n">
@@ -10524,7 +10701,7 @@
       <c r="J30" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="K30" s="16" t="n">
+      <c r="K30" s="0" t="n">
         <v>109</v>
       </c>
       <c r="L30" s="1" t="n">
@@ -10546,7 +10723,7 @@
       <c r="C31" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="0" t="n">
         <v>67</v>
       </c>
       <c r="E31" s="1" t="n">
@@ -10560,7 +10737,7 @@
       <c r="J31" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K31" s="16" t="n">
+      <c r="K31" s="0" t="n">
         <v>106</v>
       </c>
       <c r="L31" s="1" t="n">
@@ -10582,7 +10759,7 @@
       <c r="C32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E32" s="1" t="n">
@@ -10596,7 +10773,7 @@
       <c r="J32" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="16" t="n">
+      <c r="K32" s="0" t="n">
         <v>105</v>
       </c>
       <c r="L32" s="1" t="n">
@@ -10618,7 +10795,7 @@
       <c r="C33" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="0" t="n">
         <v>64</v>
       </c>
       <c r="E33" s="1" t="n">
@@ -10632,7 +10809,7 @@
       <c r="J33" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="K33" s="16" t="n">
+      <c r="K33" s="0" t="n">
         <v>101</v>
       </c>
       <c r="L33" s="1" t="n">
@@ -10654,7 +10831,7 @@
       <c r="C34" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="0" t="n">
         <v>64</v>
       </c>
       <c r="E34" s="1" t="n">
@@ -10668,7 +10845,7 @@
       <c r="J34" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="K34" s="16" t="n">
+      <c r="K34" s="0" t="n">
         <v>101</v>
       </c>
       <c r="L34" s="1" t="n">
@@ -10690,7 +10867,7 @@
       <c r="C35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="0" t="n">
         <v>57</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -10704,7 +10881,7 @@
       <c r="J35" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="K35" s="16" t="n">
+      <c r="K35" s="0" t="n">
         <v>99</v>
       </c>
       <c r="L35" s="1" t="n">
@@ -10726,7 +10903,7 @@
       <c r="C36" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="16" t="n">
+      <c r="D36" s="0" t="n">
         <v>56</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -10740,7 +10917,7 @@
       <c r="J36" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="K36" s="16" t="n">
+      <c r="K36" s="0" t="n">
         <v>97</v>
       </c>
       <c r="L36" s="1" t="n">
@@ -10762,7 +10939,7 @@
       <c r="C37" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="16" t="n">
+      <c r="D37" s="0" t="n">
         <v>53</v>
       </c>
       <c r="E37" s="1" t="n">
@@ -10776,7 +10953,7 @@
       <c r="J37" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="K37" s="16" t="n">
+      <c r="K37" s="0" t="n">
         <v>96</v>
       </c>
       <c r="L37" s="1" t="n">
@@ -10798,7 +10975,7 @@
       <c r="C38" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="16" t="n">
+      <c r="D38" s="0" t="n">
         <v>52</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -10812,7 +10989,7 @@
       <c r="J38" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="K38" s="16" t="n">
+      <c r="K38" s="0" t="n">
         <v>94</v>
       </c>
       <c r="L38" s="1" t="n">
@@ -10834,7 +11011,7 @@
       <c r="C39" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="16" t="n">
+      <c r="D39" s="0" t="n">
         <v>51</v>
       </c>
       <c r="E39" s="1" t="n">
@@ -10848,7 +11025,7 @@
       <c r="J39" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="K39" s="16" t="n">
+      <c r="K39" s="0" t="n">
         <v>92</v>
       </c>
       <c r="L39" s="1" t="n">
@@ -10870,7 +11047,7 @@
       <c r="C40" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="16" t="n">
+      <c r="D40" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E40" s="1" t="n">
@@ -10884,7 +11061,7 @@
       <c r="J40" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="K40" s="16" t="n">
+      <c r="K40" s="0" t="n">
         <v>92</v>
       </c>
       <c r="L40" s="1" t="n">
@@ -10906,7 +11083,7 @@
       <c r="C41" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="16" t="n">
+      <c r="D41" s="0" t="n">
         <v>49</v>
       </c>
       <c r="E41" s="1" t="n">
@@ -10920,7 +11097,7 @@
       <c r="J41" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K41" s="16" t="n">
+      <c r="K41" s="0" t="n">
         <v>84</v>
       </c>
       <c r="L41" s="1" t="n">
@@ -10942,7 +11119,7 @@
       <c r="C42" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="16" t="n">
+      <c r="D42" s="0" t="n">
         <v>47</v>
       </c>
       <c r="E42" s="1" t="n">
@@ -10956,7 +11133,7 @@
       <c r="J42" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="K42" s="16" t="n">
+      <c r="K42" s="0" t="n">
         <v>83</v>
       </c>
       <c r="L42" s="1" t="n">
@@ -10978,7 +11155,7 @@
       <c r="C43" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="16" t="n">
+      <c r="D43" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E43" s="1" t="n">
@@ -10992,7 +11169,7 @@
       <c r="J43" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="K43" s="16" t="n">
+      <c r="K43" s="0" t="n">
         <v>83</v>
       </c>
       <c r="L43" s="1" t="n">
@@ -11014,7 +11191,7 @@
       <c r="C44" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="16" t="n">
+      <c r="D44" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E44" s="1" t="n">
@@ -11028,7 +11205,7 @@
       <c r="J44" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="K44" s="16" t="n">
+      <c r="K44" s="0" t="n">
         <v>81</v>
       </c>
       <c r="L44" s="1" t="n">
@@ -11050,7 +11227,7 @@
       <c r="C45" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="16" t="n">
+      <c r="D45" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E45" s="1" t="n">
@@ -11064,7 +11241,7 @@
       <c r="J45" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="K45" s="16" t="n">
+      <c r="K45" s="0" t="n">
         <v>71</v>
       </c>
       <c r="L45" s="1" t="n">
@@ -11086,7 +11263,7 @@
       <c r="C46" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="16" t="n">
+      <c r="D46" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E46" s="1" t="n">
@@ -11100,7 +11277,7 @@
       <c r="J46" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="K46" s="16" t="n">
+      <c r="K46" s="0" t="n">
         <v>68</v>
       </c>
       <c r="L46" s="1" t="n">
@@ -11122,7 +11299,7 @@
       <c r="C47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="16" t="n">
+      <c r="D47" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E47" s="1" t="n">
@@ -11136,7 +11313,7 @@
       <c r="J47" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="K47" s="16" t="n">
+      <c r="K47" s="0" t="n">
         <v>67</v>
       </c>
       <c r="L47" s="1" t="n">
@@ -11158,7 +11335,7 @@
       <c r="C48" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="16" t="n">
+      <c r="D48" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E48" s="1" t="n">
@@ -11172,7 +11349,7 @@
       <c r="J48" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K48" s="16" t="n">
+      <c r="K48" s="0" t="n">
         <v>67</v>
       </c>
       <c r="L48" s="1" t="n">
@@ -11194,7 +11371,7 @@
       <c r="C49" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="16" t="n">
+      <c r="D49" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E49" s="1" t="n">
@@ -11208,7 +11385,7 @@
       <c r="J49" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="K49" s="16" t="n">
+      <c r="K49" s="0" t="n">
         <v>64</v>
       </c>
       <c r="L49" s="1" t="n">
@@ -11230,7 +11407,7 @@
       <c r="C50" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="16" t="n">
+      <c r="D50" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E50" s="1" t="n">
@@ -11244,7 +11421,7 @@
       <c r="J50" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="K50" s="16" t="n">
+      <c r="K50" s="0" t="n">
         <v>64</v>
       </c>
       <c r="L50" s="1" t="n">
@@ -11266,7 +11443,7 @@
       <c r="C51" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="16" t="n">
+      <c r="D51" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E51" s="1" t="n">
@@ -11280,7 +11457,7 @@
       <c r="J51" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="K51" s="16" t="n">
+      <c r="K51" s="0" t="n">
         <v>64</v>
       </c>
       <c r="L51" s="1" t="n">
@@ -11302,7 +11479,7 @@
       <c r="C52" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="16" t="n">
+      <c r="D52" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E52" s="1" t="n">
@@ -11316,7 +11493,7 @@
       <c r="J52" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K52" s="16" t="n">
+      <c r="K52" s="0" t="n">
         <v>63</v>
       </c>
       <c r="L52" s="1" t="n">
@@ -11338,7 +11515,7 @@
       <c r="C53" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="16" t="n">
+      <c r="D53" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E53" s="1" t="n">
@@ -11352,7 +11529,7 @@
       <c r="J53" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="K53" s="16" t="n">
+      <c r="K53" s="0" t="n">
         <v>63</v>
       </c>
       <c r="L53" s="1" t="n">
@@ -11374,7 +11551,7 @@
       <c r="C54" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="16" t="n">
+      <c r="D54" s="0" t="n">
         <v>32</v>
       </c>
       <c r="E54" s="1" t="n">
@@ -11388,7 +11565,7 @@
       <c r="J54" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="K54" s="16" t="n">
+      <c r="K54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="L54" s="1" t="n">
@@ -11410,7 +11587,7 @@
       <c r="C55" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="16" t="n">
+      <c r="D55" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E55" s="1" t="n">
@@ -11424,7 +11601,7 @@
       <c r="J55" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="K55" s="16" t="n">
+      <c r="K55" s="0" t="n">
         <v>51</v>
       </c>
       <c r="L55" s="1" t="n">
@@ -11446,7 +11623,7 @@
       <c r="C56" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="16" t="n">
+      <c r="D56" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E56" s="1" t="n">
@@ -11460,7 +11637,7 @@
       <c r="J56" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="K56" s="16" t="n">
+      <c r="K56" s="0" t="n">
         <v>50</v>
       </c>
       <c r="L56" s="1" t="n">
@@ -11482,7 +11659,7 @@
       <c r="C57" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="16" t="n">
+      <c r="D57" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E57" s="1" t="n">
@@ -11496,7 +11673,7 @@
       <c r="J57" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="K57" s="16" t="n">
+      <c r="K57" s="0" t="n">
         <v>48</v>
       </c>
       <c r="L57" s="1" t="n">
@@ -11518,7 +11695,7 @@
       <c r="C58" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="16" t="n">
+      <c r="D58" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E58" s="1" t="n">
@@ -11532,7 +11709,7 @@
       <c r="J58" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="K58" s="16" t="n">
+      <c r="K58" s="0" t="n">
         <v>48</v>
       </c>
       <c r="L58" s="1" t="n">
@@ -11554,7 +11731,7 @@
       <c r="C59" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="16" t="n">
+      <c r="D59" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E59" s="1" t="n">
@@ -11568,7 +11745,7 @@
       <c r="J59" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="K59" s="16" t="n">
+      <c r="K59" s="0" t="n">
         <v>47</v>
       </c>
       <c r="L59" s="1" t="n">
@@ -11590,7 +11767,7 @@
       <c r="C60" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="16" t="n">
+      <c r="D60" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E60" s="1" t="n">
@@ -11604,7 +11781,7 @@
       <c r="J60" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="K60" s="16" t="n">
+      <c r="K60" s="0" t="n">
         <v>46</v>
       </c>
       <c r="L60" s="1" t="n">
@@ -11626,7 +11803,7 @@
       <c r="C61" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="16" t="n">
+      <c r="D61" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E61" s="1" t="n">
@@ -11640,7 +11817,7 @@
       <c r="J61" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="K61" s="16" t="n">
+      <c r="K61" s="0" t="n">
         <v>43</v>
       </c>
       <c r="L61" s="1" t="n">
@@ -11662,7 +11839,7 @@
       <c r="C62" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="16" t="n">
+      <c r="D62" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E62" s="1" t="n">
@@ -11676,7 +11853,7 @@
       <c r="J62" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="K62" s="16" t="n">
+      <c r="K62" s="0" t="n">
         <v>41</v>
       </c>
       <c r="L62" s="1" t="n">
@@ -11698,7 +11875,7 @@
       <c r="C63" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="16" t="n">
+      <c r="D63" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E63" s="1" t="n">
@@ -11712,7 +11889,7 @@
       <c r="J63" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="K63" s="16" t="n">
+      <c r="K63" s="0" t="n">
         <v>40</v>
       </c>
       <c r="L63" s="1" t="n">
@@ -11734,7 +11911,7 @@
       <c r="C64" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="16" t="n">
+      <c r="D64" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E64" s="1" t="n">
@@ -11748,7 +11925,7 @@
       <c r="J64" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="K64" s="16" t="n">
+      <c r="K64" s="0" t="n">
         <v>38</v>
       </c>
       <c r="L64" s="1" t="n">
@@ -11770,7 +11947,7 @@
       <c r="C65" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="16" t="n">
+      <c r="D65" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E65" s="1" t="n">
@@ -11784,7 +11961,7 @@
       <c r="J65" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="K65" s="16" t="n">
+      <c r="K65" s="0" t="n">
         <v>37</v>
       </c>
       <c r="L65" s="1" t="n">
@@ -11806,7 +11983,7 @@
       <c r="C66" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="16" t="n">
+      <c r="D66" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E66" s="1" t="n">
@@ -11820,7 +11997,7 @@
       <c r="J66" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="K66" s="16" t="n">
+      <c r="K66" s="0" t="n">
         <v>37</v>
       </c>
       <c r="L66" s="1" t="n">
@@ -11842,7 +12019,7 @@
       <c r="C67" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="16" t="n">
+      <c r="D67" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E67" s="1" t="n">
@@ -11856,7 +12033,7 @@
       <c r="J67" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="K67" s="16" t="n">
+      <c r="K67" s="0" t="n">
         <v>35</v>
       </c>
       <c r="L67" s="1" t="n">
@@ -11878,7 +12055,7 @@
       <c r="C68" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="16" t="n">
+      <c r="D68" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E68" s="1" t="n">
@@ -11892,7 +12069,7 @@
       <c r="J68" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="K68" s="16" t="n">
+      <c r="K68" s="0" t="n">
         <v>35</v>
       </c>
       <c r="L68" s="1" t="n">
@@ -11914,7 +12091,7 @@
       <c r="C69" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="16" t="n">
+      <c r="D69" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E69" s="1" t="n">
@@ -11928,7 +12105,7 @@
       <c r="J69" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="K69" s="16" t="n">
+      <c r="K69" s="0" t="n">
         <v>34</v>
       </c>
       <c r="L69" s="1" t="n">
@@ -11950,7 +12127,7 @@
       <c r="C70" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="16" t="n">
+      <c r="D70" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E70" s="1" t="n">
@@ -11964,7 +12141,7 @@
       <c r="J70" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="K70" s="16" t="n">
+      <c r="K70" s="0" t="n">
         <v>34</v>
       </c>
       <c r="L70" s="1" t="n">
@@ -11986,7 +12163,7 @@
       <c r="C71" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D71" s="16" t="n">
+      <c r="D71" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="1" t="n">
@@ -12000,7 +12177,7 @@
       <c r="J71" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="K71" s="16" t="n">
+      <c r="K71" s="0" t="n">
         <v>34</v>
       </c>
       <c r="L71" s="1" t="n">
@@ -12022,7 +12199,7 @@
       <c r="C72" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="16" t="n">
+      <c r="D72" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E72" s="1" t="n">
@@ -12036,7 +12213,7 @@
       <c r="J72" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="K72" s="16" t="n">
+      <c r="K72" s="0" t="n">
         <v>34</v>
       </c>
       <c r="L72" s="1" t="n">
@@ -12058,7 +12235,7 @@
       <c r="C73" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="16" t="n">
+      <c r="D73" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E73" s="1" t="n">
@@ -12072,7 +12249,7 @@
       <c r="J73" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="K73" s="16" t="n">
+      <c r="K73" s="0" t="n">
         <v>32</v>
       </c>
       <c r="L73" s="1" t="n">
@@ -12094,7 +12271,7 @@
       <c r="C74" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="16" t="n">
+      <c r="D74" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E74" s="1" t="n">
@@ -12108,7 +12285,7 @@
       <c r="J74" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="K74" s="16" t="n">
+      <c r="K74" s="0" t="n">
         <v>31</v>
       </c>
       <c r="L74" s="1" t="n">
@@ -12130,7 +12307,7 @@
       <c r="C75" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D75" s="16" t="n">
+      <c r="D75" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E75" s="1" t="n">
@@ -12144,7 +12321,7 @@
       <c r="J75" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="K75" s="16" t="n">
+      <c r="K75" s="0" t="n">
         <v>31</v>
       </c>
       <c r="L75" s="1" t="n">
@@ -12166,7 +12343,7 @@
       <c r="C76" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="16" t="n">
+      <c r="D76" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E76" s="1" t="n">
@@ -12180,7 +12357,7 @@
       <c r="J76" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="K76" s="16" t="n">
+      <c r="K76" s="0" t="n">
         <v>31</v>
       </c>
       <c r="L76" s="1" t="n">
@@ -12202,7 +12379,7 @@
       <c r="C77" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="16" t="n">
+      <c r="D77" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E77" s="1" t="n">
@@ -12216,7 +12393,7 @@
       <c r="J77" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="K77" s="16" t="n">
+      <c r="K77" s="0" t="n">
         <v>29</v>
       </c>
       <c r="L77" s="1" t="n">
@@ -12238,7 +12415,7 @@
       <c r="C78" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="16" t="n">
+      <c r="D78" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E78" s="1" t="n">
@@ -12252,7 +12429,7 @@
       <c r="J78" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="K78" s="16" t="n">
+      <c r="K78" s="0" t="n">
         <v>28</v>
       </c>
       <c r="L78" s="1" t="n">
@@ -12274,7 +12451,7 @@
       <c r="C79" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="16" t="n">
+      <c r="D79" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E79" s="1" t="n">
@@ -12288,7 +12465,7 @@
       <c r="J79" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="K79" s="16" t="n">
+      <c r="K79" s="0" t="n">
         <v>28</v>
       </c>
       <c r="L79" s="1" t="n">
@@ -12310,7 +12487,7 @@
       <c r="C80" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="16" t="n">
+      <c r="D80" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E80" s="1" t="n">
@@ -12324,7 +12501,7 @@
       <c r="J80" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="K80" s="16" t="n">
+      <c r="K80" s="0" t="n">
         <v>27</v>
       </c>
       <c r="L80" s="1" t="n">
@@ -12346,7 +12523,7 @@
       <c r="C81" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="16" t="n">
+      <c r="D81" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E81" s="1" t="n">
@@ -12360,7 +12537,7 @@
       <c r="J81" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="K81" s="16" t="n">
+      <c r="K81" s="0" t="n">
         <v>26</v>
       </c>
       <c r="L81" s="1" t="n">
@@ -12382,7 +12559,7 @@
       <c r="C82" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="16" t="n">
+      <c r="D82" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E82" s="1" t="n">
@@ -12396,7 +12573,7 @@
       <c r="J82" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="K82" s="16" t="n">
+      <c r="K82" s="0" t="n">
         <v>24</v>
       </c>
       <c r="L82" s="1" t="n">
@@ -12418,7 +12595,7 @@
       <c r="C83" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="16" t="n">
+      <c r="D83" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="n">
@@ -12432,7 +12609,7 @@
       <c r="J83" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="K83" s="16" t="n">
+      <c r="K83" s="0" t="n">
         <v>24</v>
       </c>
       <c r="L83" s="1" t="n">
@@ -12454,7 +12631,7 @@
       <c r="C84" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D84" s="16" t="n">
+      <c r="D84" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="n">
@@ -12468,7 +12645,7 @@
       <c r="J84" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="K84" s="16" t="n">
+      <c r="K84" s="0" t="n">
         <v>24</v>
       </c>
       <c r="L84" s="1" t="n">
@@ -12490,7 +12667,7 @@
       <c r="C85" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D85" s="16" t="n">
+      <c r="D85" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E85" s="1" t="n">
@@ -12504,7 +12681,7 @@
       <c r="J85" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="K85" s="16" t="n">
+      <c r="K85" s="0" t="n">
         <v>23</v>
       </c>
       <c r="L85" s="1" t="n">
@@ -12526,7 +12703,7 @@
       <c r="C86" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D86" s="16" t="n">
+      <c r="D86" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E86" s="1" t="n">
@@ -12540,7 +12717,7 @@
       <c r="J86" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="K86" s="16" t="n">
+      <c r="K86" s="0" t="n">
         <v>23</v>
       </c>
       <c r="L86" s="1" t="n">
@@ -12562,7 +12739,7 @@
       <c r="C87" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D87" s="16" t="n">
+      <c r="D87" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E87" s="1" t="n">
@@ -12576,7 +12753,7 @@
       <c r="J87" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="K87" s="16" t="n">
+      <c r="K87" s="0" t="n">
         <v>22</v>
       </c>
       <c r="L87" s="1" t="n">
@@ -12598,7 +12775,7 @@
       <c r="C88" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D88" s="16" t="n">
+      <c r="D88" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E88" s="1" t="n">
@@ -12612,7 +12789,7 @@
       <c r="J88" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="K88" s="16" t="n">
+      <c r="K88" s="0" t="n">
         <v>22</v>
       </c>
       <c r="L88" s="1" t="n">
@@ -12634,7 +12811,7 @@
       <c r="C89" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="16" t="n">
+      <c r="D89" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E89" s="1" t="n">
@@ -12648,7 +12825,7 @@
       <c r="J89" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="K89" s="16" t="n">
+      <c r="K89" s="0" t="n">
         <v>21</v>
       </c>
       <c r="L89" s="1" t="n">
@@ -12670,7 +12847,7 @@
       <c r="C90" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="16" t="n">
+      <c r="D90" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E90" s="1" t="n">
@@ -12684,7 +12861,7 @@
       <c r="J90" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="K90" s="16" t="n">
+      <c r="K90" s="0" t="n">
         <v>20</v>
       </c>
       <c r="L90" s="1" t="n">
@@ -12706,7 +12883,7 @@
       <c r="C91" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="16" t="n">
+      <c r="D91" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E91" s="1" t="n">
@@ -12720,7 +12897,7 @@
       <c r="J91" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="K91" s="16" t="n">
+      <c r="K91" s="0" t="n">
         <v>20</v>
       </c>
       <c r="L91" s="1" t="n">
@@ -12742,7 +12919,7 @@
       <c r="C92" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D92" s="16" t="n">
+      <c r="D92" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E92" s="1" t="n">
@@ -12756,7 +12933,7 @@
       <c r="J92" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="K92" s="16" t="n">
+      <c r="K92" s="0" t="n">
         <v>20</v>
       </c>
       <c r="L92" s="1" t="n">
@@ -12778,7 +12955,7 @@
       <c r="C93" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D93" s="16" t="n">
+      <c r="D93" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E93" s="1" t="n">
@@ -12792,7 +12969,7 @@
       <c r="J93" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="K93" s="16" t="n">
+      <c r="K93" s="0" t="n">
         <v>19</v>
       </c>
       <c r="L93" s="1" t="n">
@@ -12814,7 +12991,7 @@
       <c r="C94" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="16" t="n">
+      <c r="D94" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E94" s="1" t="n">
@@ -12828,14 +13005,14 @@
       <c r="J94" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="K94" s="16" t="n">
+      <c r="K94" s="0" t="n">
         <v>19</v>
       </c>
       <c r="L94" s="1" t="n">
         <f aca="false">K94/11495</f>
         <v>0.00165289256198347</v>
       </c>
-      <c r="M94" s="17" t="s">
+      <c r="M94" s="16" t="s">
         <v>392</v>
       </c>
       <c r="N94" s="0" t="n">
@@ -12850,7 +13027,7 @@
       <c r="C95" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="16" t="n">
+      <c r="D95" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E95" s="1" t="n">
@@ -12864,7 +13041,7 @@
       <c r="J95" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="K95" s="16" t="n">
+      <c r="K95" s="0" t="n">
         <v>17</v>
       </c>
       <c r="L95" s="1" t="n">
@@ -12886,7 +13063,7 @@
       <c r="C96" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D96" s="16" t="n">
+      <c r="D96" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E96" s="1" t="n">
@@ -12900,7 +13077,7 @@
       <c r="J96" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="K96" s="16" t="n">
+      <c r="K96" s="0" t="n">
         <v>17</v>
       </c>
       <c r="L96" s="1" t="n">
@@ -12922,7 +13099,7 @@
       <c r="C97" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="16" t="n">
+      <c r="D97" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E97" s="1" t="n">
@@ -12936,7 +13113,7 @@
       <c r="J97" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="K97" s="16" t="n">
+      <c r="K97" s="0" t="n">
         <v>17</v>
       </c>
       <c r="L97" s="1" t="n">
@@ -12958,7 +13135,7 @@
       <c r="C98" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="16" t="n">
+      <c r="D98" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E98" s="1" t="n">
@@ -12972,7 +13149,7 @@
       <c r="J98" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="K98" s="16" t="n">
+      <c r="K98" s="0" t="n">
         <v>16</v>
       </c>
       <c r="L98" s="1" t="n">
@@ -12994,7 +13171,7 @@
       <c r="C99" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="16" t="n">
+      <c r="D99" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E99" s="1" t="n">
@@ -13008,7 +13185,7 @@
       <c r="J99" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="K99" s="16" t="n">
+      <c r="K99" s="0" t="n">
         <v>16</v>
       </c>
       <c r="L99" s="1" t="n">
@@ -13030,7 +13207,7 @@
       <c r="C100" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="16" t="n">
+      <c r="D100" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E100" s="1" t="n">
@@ -13044,7 +13221,7 @@
       <c r="J100" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="K100" s="16" t="n">
+      <c r="K100" s="0" t="n">
         <v>16</v>
       </c>
       <c r="L100" s="1" t="n">
@@ -13066,7 +13243,7 @@
       <c r="C101" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="16" t="n">
+      <c r="D101" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E101" s="1" t="n">
@@ -13080,7 +13257,7 @@
       <c r="J101" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="K101" s="16" t="n">
+      <c r="K101" s="0" t="n">
         <v>16</v>
       </c>
       <c r="L101" s="1" t="n">
@@ -13102,7 +13279,7 @@
       <c r="C102" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D102" s="16" t="n">
+      <c r="D102" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E102" s="1" t="n">
@@ -13116,7 +13293,7 @@
       <c r="J102" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="K102" s="16" t="n">
+      <c r="K102" s="0" t="n">
         <v>15</v>
       </c>
       <c r="L102" s="1" t="n">
@@ -13138,7 +13315,7 @@
       <c r="C103" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="16" t="n">
+      <c r="D103" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E103" s="1" t="n">
@@ -13152,7 +13329,7 @@
       <c r="J103" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="K103" s="16" t="n">
+      <c r="K103" s="0" t="n">
         <v>14</v>
       </c>
       <c r="L103" s="1" t="n">
@@ -13174,7 +13351,7 @@
       <c r="C104" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D104" s="16" t="n">
+      <c r="D104" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E104" s="1" t="n">
@@ -13188,7 +13365,7 @@
       <c r="J104" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="K104" s="16" t="n">
+      <c r="K104" s="0" t="n">
         <v>14</v>
       </c>
       <c r="L104" s="1" t="n">
@@ -13210,7 +13387,7 @@
       <c r="C105" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="16" t="n">
+      <c r="D105" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E105" s="1" t="n">
@@ -13224,7 +13401,7 @@
       <c r="J105" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="K105" s="16" t="n">
+      <c r="K105" s="0" t="n">
         <v>14</v>
       </c>
       <c r="L105" s="1" t="n">
@@ -13246,7 +13423,7 @@
       <c r="C106" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="D106" s="16" t="n">
+      <c r="D106" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E106" s="1" t="n">
@@ -13260,7 +13437,7 @@
       <c r="J106" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="K106" s="16" t="n">
+      <c r="K106" s="0" t="n">
         <v>14</v>
       </c>
       <c r="L106" s="1" t="n">
@@ -13282,7 +13459,7 @@
       <c r="C107" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D107" s="16" t="n">
+      <c r="D107" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E107" s="1" t="n">
@@ -13296,7 +13473,7 @@
       <c r="J107" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="K107" s="16" t="n">
+      <c r="K107" s="0" t="n">
         <v>14</v>
       </c>
       <c r="L107" s="1" t="n">
@@ -13318,7 +13495,7 @@
       <c r="C108" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D108" s="16" t="n">
+      <c r="D108" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E108" s="1" t="n">
@@ -13332,7 +13509,7 @@
       <c r="J108" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="K108" s="16" t="n">
+      <c r="K108" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L108" s="1" t="n">
@@ -13354,7 +13531,7 @@
       <c r="C109" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D109" s="16" t="n">
+      <c r="D109" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E109" s="1" t="n">
@@ -13368,7 +13545,7 @@
       <c r="J109" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="K109" s="16" t="n">
+      <c r="K109" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L109" s="1" t="n">
@@ -13390,7 +13567,7 @@
       <c r="C110" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D110" s="16" t="n">
+      <c r="D110" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E110" s="1" t="n">
@@ -13404,7 +13581,7 @@
       <c r="J110" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="K110" s="16" t="n">
+      <c r="K110" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L110" s="1" t="n">
@@ -13426,7 +13603,7 @@
       <c r="C111" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D111" s="16" t="n">
+      <c r="D111" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E111" s="1" t="n">
@@ -13440,7 +13617,7 @@
       <c r="J111" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K111" s="16" t="n">
+      <c r="K111" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L111" s="1" t="n">
@@ -13462,7 +13639,7 @@
       <c r="C112" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D112" s="16" t="n">
+      <c r="D112" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="n">
@@ -13476,7 +13653,7 @@
       <c r="J112" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="K112" s="16" t="n">
+      <c r="K112" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L112" s="1" t="n">
@@ -13498,7 +13675,7 @@
       <c r="C113" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D113" s="16" t="n">
+      <c r="D113" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E113" s="1" t="n">
@@ -13512,7 +13689,7 @@
       <c r="J113" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="K113" s="16" t="n">
+      <c r="K113" s="0" t="n">
         <v>12</v>
       </c>
       <c r="L113" s="1" t="n">
@@ -13534,7 +13711,7 @@
       <c r="C114" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D114" s="16" t="n">
+      <c r="D114" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E114" s="1" t="n">
@@ -13548,7 +13725,7 @@
       <c r="J114" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="K114" s="16" t="n">
+      <c r="K114" s="0" t="n">
         <v>12</v>
       </c>
       <c r="L114" s="1" t="n">
@@ -13567,10 +13744,10 @@
       <c r="B115" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="D115" s="16" t="n">
+      <c r="D115" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E115" s="1" t="n">
@@ -13584,7 +13761,7 @@
       <c r="J115" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="K115" s="16" t="n">
+      <c r="K115" s="0" t="n">
         <v>12</v>
       </c>
       <c r="L115" s="1" t="n">
@@ -13606,7 +13783,7 @@
       <c r="C116" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D116" s="16" t="n">
+      <c r="D116" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E116" s="1" t="n">
@@ -13620,7 +13797,7 @@
       <c r="J116" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="K116" s="16" t="n">
+      <c r="K116" s="0" t="n">
         <v>12</v>
       </c>
       <c r="L116" s="1" t="n">
@@ -13642,7 +13819,7 @@
       <c r="C117" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D117" s="16" t="n">
+      <c r="D117" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E117" s="1" t="n">
@@ -13656,7 +13833,7 @@
       <c r="J117" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="K117" s="16" t="n">
+      <c r="K117" s="0" t="n">
         <v>12</v>
       </c>
       <c r="L117" s="1" t="n">
@@ -13678,7 +13855,7 @@
       <c r="C118" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D118" s="16" t="n">
+      <c r="D118" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E118" s="1" t="n">
@@ -13692,7 +13869,7 @@
       <c r="J118" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="K118" s="16" t="n">
+      <c r="K118" s="0" t="n">
         <v>11</v>
       </c>
       <c r="L118" s="1" t="n">
@@ -13714,7 +13891,7 @@
       <c r="C119" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D119" s="16" t="n">
+      <c r="D119" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="n">
@@ -13728,7 +13905,7 @@
       <c r="J119" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="K119" s="16" t="n">
+      <c r="K119" s="0" t="n">
         <v>11</v>
       </c>
       <c r="L119" s="1" t="n">
@@ -13750,7 +13927,7 @@
       <c r="C120" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D120" s="16" t="n">
+      <c r="D120" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E120" s="1" t="n">
@@ -13764,7 +13941,7 @@
       <c r="J120" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="K120" s="16" t="n">
+      <c r="K120" s="0" t="n">
         <v>11</v>
       </c>
       <c r="L120" s="1" t="n">
@@ -13786,7 +13963,7 @@
       <c r="C121" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="16" t="n">
+      <c r="D121" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E121" s="1" t="n">
@@ -13800,7 +13977,7 @@
       <c r="J121" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="K121" s="16" t="n">
+      <c r="K121" s="0" t="n">
         <v>11</v>
       </c>
       <c r="L121" s="1" t="n">
@@ -13822,7 +13999,7 @@
       <c r="C122" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D122" s="16" t="n">
+      <c r="D122" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E122" s="1" t="n">
@@ -13836,7 +14013,7 @@
       <c r="J122" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="K122" s="16" t="n">
+      <c r="K122" s="0" t="n">
         <v>11</v>
       </c>
       <c r="L122" s="1" t="n">
@@ -13858,7 +14035,7 @@
       <c r="C123" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D123" s="16" t="n">
+      <c r="D123" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E123" s="1" t="n">
@@ -13872,7 +14049,7 @@
       <c r="J123" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="K123" s="16" t="n">
+      <c r="K123" s="0" t="n">
         <v>11</v>
       </c>
       <c r="L123" s="1" t="n">
@@ -13894,7 +14071,7 @@
       <c r="C124" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D124" s="16" t="n">
+      <c r="D124" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E124" s="1" t="n">
@@ -13905,17 +14082,18 @@
         <f aca="false">RANK(D124,$D$2:$D$180)</f>
         <v>118</v>
       </c>
-      <c r="J124" s="6"/>
-      <c r="K124" s="18" t="n">
+      <c r="J124" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K124" s="5" t="n">
         <v>10</v>
       </c>
       <c r="L124" s="1" t="n">
         <f aca="false">K124/11495</f>
         <v>0.000869943453675511</v>
       </c>
-      <c r="M124" s="0" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
+      <c r="M124" s="0" t="s">
+        <v>437</v>
       </c>
       <c r="N124" s="0" t="n">
         <f aca="false">RANK(K124,$K$2:$K$214)</f>
@@ -13924,12 +14102,12 @@
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="D125" s="16" t="n">
+        <v>439</v>
+      </c>
+      <c r="D125" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E125" s="1" t="n">
@@ -13941,9 +14119,9 @@
         <v>124</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="K125" s="16" t="n">
+        <v>440</v>
+      </c>
+      <c r="K125" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L125" s="1" t="n">
@@ -13965,7 +14143,7 @@
       <c r="C126" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D126" s="16" t="n">
+      <c r="D126" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E126" s="1" t="n">
@@ -13977,9 +14155,9 @@
         <v>124</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="K126" s="16" t="n">
+        <v>441</v>
+      </c>
+      <c r="K126" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L126" s="1" t="n">
@@ -13987,7 +14165,7 @@
         <v>0.00078294910830796</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N126" s="0" t="n">
         <f aca="false">RANK(K126,$K$2:$K$214)</f>
@@ -13996,12 +14174,12 @@
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D127" s="16" t="n">
+      <c r="D127" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E127" s="1" t="n">
@@ -14013,9 +14191,9 @@
         <v>124</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="K127" s="16" t="n">
+        <v>438</v>
+      </c>
+      <c r="K127" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L127" s="1" t="n">
@@ -14023,7 +14201,7 @@
         <v>0.00078294910830796</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N127" s="0" t="n">
         <f aca="false">RANK(K127,$K$2:$K$214)</f>
@@ -14037,7 +14215,7 @@
       <c r="C128" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D128" s="16" t="n">
+      <c r="D128" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E128" s="1" t="n">
@@ -14051,7 +14229,7 @@
       <c r="J128" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="K128" s="16" t="n">
+      <c r="K128" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L128" s="1" t="n">
@@ -14073,7 +14251,7 @@
       <c r="C129" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D129" s="16" t="n">
+      <c r="D129" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E129" s="1" t="n">
@@ -14085,9 +14263,9 @@
         <v>124</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="K129" s="16" t="n">
+        <v>444</v>
+      </c>
+      <c r="K129" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L129" s="1" t="n">
@@ -14109,7 +14287,7 @@
       <c r="C130" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D130" s="16" t="n">
+      <c r="D130" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E130" s="1" t="n">
@@ -14123,7 +14301,7 @@
       <c r="J130" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="K130" s="16" t="n">
+      <c r="K130" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L130" s="1" t="n">
@@ -14140,12 +14318,12 @@
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D131" s="16" t="n">
+      <c r="D131" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E131" s="1" t="n">
@@ -14157,9 +14335,9 @@
         <v>130</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="K131" s="16" t="n">
+        <v>446</v>
+      </c>
+      <c r="K131" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L131" s="1" t="n">
@@ -14176,12 +14354,12 @@
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="16" t="n">
+      <c r="D132" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E132" s="1" t="n">
@@ -14193,9 +14371,9 @@
         <v>130</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="K132" s="16" t="n">
+        <v>448</v>
+      </c>
+      <c r="K132" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L132" s="1" t="n">
@@ -14212,12 +14390,12 @@
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D133" s="16" t="n">
+      <c r="D133" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E133" s="1" t="n">
@@ -14229,9 +14407,9 @@
         <v>130</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="K133" s="16" t="n">
+        <v>450</v>
+      </c>
+      <c r="K133" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L133" s="1" t="n">
@@ -14248,12 +14426,12 @@
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D134" s="16" t="n">
+      <c r="D134" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E134" s="1" t="n">
@@ -14267,7 +14445,7 @@
       <c r="J134" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="K134" s="16" t="n">
+      <c r="K134" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L134" s="1" t="n">
@@ -14284,12 +14462,12 @@
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D135" s="16" t="n">
+      <c r="D135" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E135" s="1" t="n">
@@ -14301,9 +14479,9 @@
         <v>130</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="K135" s="16" t="n">
+        <v>449</v>
+      </c>
+      <c r="K135" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L135" s="1" t="n">
@@ -14320,12 +14498,12 @@
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D136" s="16" t="n">
+      <c r="D136" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E136" s="1" t="n">
@@ -14339,7 +14517,7 @@
       <c r="J136" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="K136" s="16" t="n">
+      <c r="K136" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L136" s="1" t="n">
@@ -14356,12 +14534,12 @@
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D137" s="16" t="n">
+      <c r="D137" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E137" s="1" t="n">
@@ -14375,7 +14553,7 @@
       <c r="J137" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="K137" s="16" t="n">
+      <c r="K137" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L137" s="1" t="n">
@@ -14392,12 +14570,12 @@
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D138" s="16" t="n">
+      <c r="D138" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E138" s="1" t="n">
@@ -14411,7 +14589,7 @@
       <c r="J138" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="K138" s="16" t="n">
+      <c r="K138" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L138" s="1" t="n">
@@ -14428,12 +14606,12 @@
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D139" s="16" t="n">
+      <c r="D139" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E139" s="1" t="n">
@@ -14445,9 +14623,9 @@
         <v>130</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="K139" s="16" t="n">
+        <v>453</v>
+      </c>
+      <c r="K139" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L139" s="1" t="n">
@@ -14464,12 +14642,12 @@
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D140" s="16" t="n">
+      <c r="D140" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E140" s="1" t="n">
@@ -14481,9 +14659,9 @@
         <v>130</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="K140" s="16" t="n">
+        <v>457</v>
+      </c>
+      <c r="K140" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L140" s="1" t="n">
@@ -14491,7 +14669,7 @@
         <v>0.000695954762940409</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N140" s="0" t="n">
         <f aca="false">RANK(K140,$K$2:$K$214)</f>
@@ -14505,7 +14683,7 @@
       <c r="C141" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D141" s="16" t="n">
+      <c r="D141" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E141" s="1" t="n">
@@ -14519,7 +14697,7 @@
       <c r="J141" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="K141" s="16" t="n">
+      <c r="K141" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L141" s="1" t="n">
@@ -14541,7 +14719,7 @@
       <c r="C142" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D142" s="16" t="n">
+      <c r="D142" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E142" s="1" t="n">
@@ -14555,7 +14733,7 @@
       <c r="J142" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="K142" s="16" t="n">
+      <c r="K142" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L142" s="1" t="n">
@@ -14577,7 +14755,7 @@
       <c r="C143" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D143" s="16" t="n">
+      <c r="D143" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E143" s="1" t="n">
@@ -14589,9 +14767,9 @@
         <v>130</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="K143" s="16" t="n">
+        <v>459</v>
+      </c>
+      <c r="K143" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L143" s="1" t="n">
@@ -14599,7 +14777,7 @@
         <v>0.000608960417572858</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N143" s="0" t="n">
         <f aca="false">RANK(K143,$K$2:$K$214)</f>
@@ -14608,12 +14786,12 @@
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D144" s="16" t="n">
+      <c r="D144" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E144" s="1" t="n">
@@ -14627,7 +14805,7 @@
       <c r="J144" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="K144" s="16" t="n">
+      <c r="K144" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L144" s="1" t="n">
@@ -14644,12 +14822,12 @@
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D145" s="16" t="n">
+      <c r="D145" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E145" s="1" t="n">
@@ -14661,9 +14839,9 @@
         <v>143</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="K145" s="16" t="n">
+        <v>463</v>
+      </c>
+      <c r="K145" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L145" s="1" t="n">
@@ -14671,7 +14849,7 @@
         <v>0.000608960417572858</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N145" s="0" t="n">
         <f aca="false">RANK(K145,$K$2:$K$214)</f>
@@ -14680,12 +14858,12 @@
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D146" s="16" t="n">
+      <c r="D146" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E146" s="1" t="n">
@@ -14697,9 +14875,9 @@
         <v>143</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="K146" s="16" t="n">
+        <v>465</v>
+      </c>
+      <c r="K146" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L146" s="1" t="n">
@@ -14721,7 +14899,7 @@
       <c r="C147" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D147" s="16" t="n">
+      <c r="D147" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E147" s="1" t="n">
@@ -14735,7 +14913,7 @@
       <c r="J147" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="K147" s="16" t="n">
+      <c r="K147" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L147" s="1" t="n">
@@ -14757,7 +14935,7 @@
       <c r="C148" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D148" s="16" t="n">
+      <c r="D148" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E148" s="1" t="n">
@@ -14769,9 +14947,9 @@
         <v>143</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="K148" s="16" t="n">
+        <v>456</v>
+      </c>
+      <c r="K148" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L148" s="1" t="n">
@@ -14788,12 +14966,12 @@
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D149" s="16" t="n">
+      <c r="D149" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E149" s="1" t="n">
@@ -14805,17 +14983,17 @@
         <v>148</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="K149" s="16" t="n">
+        <v>467</v>
+      </c>
+      <c r="K149" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L149" s="1" t="n">
         <f aca="false">K149/11495</f>
         <v>0.000608960417572858</v>
       </c>
-      <c r="M149" s="17" t="s">
-        <v>467</v>
+      <c r="M149" s="16" t="s">
+        <v>468</v>
       </c>
       <c r="N149" s="0" t="n">
         <f aca="false">RANK(K149,$K$2:$K$214)</f>
@@ -14829,7 +15007,7 @@
       <c r="C150" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D150" s="16" t="n">
+      <c r="D150" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E150" s="1" t="n">
@@ -14843,7 +15021,7 @@
       <c r="J150" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="K150" s="16" t="n">
+      <c r="K150" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L150" s="1" t="n">
@@ -14860,12 +15038,12 @@
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="16" t="n">
+      <c r="D151" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E151" s="1" t="n">
@@ -14879,7 +15057,7 @@
       <c r="J151" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="K151" s="16" t="n">
+      <c r="K151" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L151" s="1" t="n">
@@ -14896,12 +15074,12 @@
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="16" t="n">
+      <c r="D152" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E152" s="1" t="n">
@@ -14913,9 +15091,9 @@
         <v>148</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="K152" s="16" t="n">
+        <v>452</v>
+      </c>
+      <c r="K152" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L152" s="1" t="n">
@@ -14932,12 +15110,12 @@
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="16" t="n">
+      <c r="D153" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E153" s="1" t="n">
@@ -14949,9 +15127,9 @@
         <v>148</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="K153" s="16" t="n">
+        <v>471</v>
+      </c>
+      <c r="K153" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L153" s="1" t="n">
@@ -14959,7 +15137,7 @@
         <v>0.000521966072205307</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N153" s="0" t="n">
         <f aca="false">RANK(K153,$K$2:$K$214)</f>
@@ -14968,12 +15146,12 @@
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D154" s="16" t="n">
+      <c r="D154" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E154" s="1" t="n">
@@ -14985,9 +15163,9 @@
         <v>148</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="K154" s="16" t="n">
+        <v>443</v>
+      </c>
+      <c r="K154" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L154" s="1" t="n">
@@ -15009,7 +15187,7 @@
       <c r="C155" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D155" s="16" t="n">
+      <c r="D155" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E155" s="1" t="n">
@@ -15021,9 +15199,9 @@
         <v>148</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="K155" s="16" t="n">
+        <v>454</v>
+      </c>
+      <c r="K155" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L155" s="1" t="n">
@@ -15040,12 +15218,12 @@
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D156" s="16" t="n">
+      <c r="D156" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E156" s="1" t="n">
@@ -15059,7 +15237,7 @@
       <c r="J156" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="K156" s="16" t="n">
+      <c r="K156" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L156" s="1" t="n">
@@ -15076,12 +15254,12 @@
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D157" s="16" t="n">
+      <c r="D157" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E157" s="1" t="n">
@@ -15095,7 +15273,7 @@
       <c r="J157" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="K157" s="16" t="n">
+      <c r="K157" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L157" s="1" t="n">
@@ -15112,12 +15290,12 @@
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="D158" s="16" t="n">
+        <v>477</v>
+      </c>
+      <c r="D158" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E158" s="1" t="n">
@@ -15129,9 +15307,9 @@
         <v>155</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="K158" s="16" t="n">
+        <v>470</v>
+      </c>
+      <c r="K158" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L158" s="1" t="n">
@@ -15148,12 +15326,12 @@
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D159" s="16" t="n">
+      <c r="D159" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E159" s="1" t="n">
@@ -15165,9 +15343,9 @@
         <v>155</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="K159" s="16" t="n">
+        <v>479</v>
+      </c>
+      <c r="K159" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L159" s="1" t="n">
@@ -15184,12 +15362,12 @@
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D160" s="16" t="n">
+        <v>481</v>
+      </c>
+      <c r="D160" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E160" s="1" t="n">
@@ -15201,9 +15379,9 @@
         <v>155</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="K160" s="16" t="n">
+        <v>482</v>
+      </c>
+      <c r="K160" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L160" s="1" t="n">
@@ -15220,12 +15398,12 @@
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D161" s="16" t="n">
+      <c r="D161" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E161" s="1" t="n">
@@ -15237,9 +15415,9 @@
         <v>155</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="K161" s="16" t="n">
+        <v>484</v>
+      </c>
+      <c r="K161" s="0" t="n">
         <v>6</v>
       </c>
       <c r="L161" s="1" t="n">
@@ -15256,12 +15434,12 @@
     </row>
     <row r="162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D162" s="16" t="n">
+      <c r="D162" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E162" s="1" t="n">
@@ -15273,9 +15451,9 @@
         <v>155</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="K162" s="16" t="n">
+        <v>485</v>
+      </c>
+      <c r="K162" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L162" s="1" t="n">
@@ -15283,7 +15461,7 @@
         <v>0.000434971726837756</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N162" s="0" t="n">
         <f aca="false">RANK(K162,$K$2:$K$214)</f>
@@ -15292,12 +15470,12 @@
     </row>
     <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D163" s="16" t="n">
+      <c r="D163" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E163" s="1" t="n">
@@ -15309,9 +15487,9 @@
         <v>155</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="K163" s="16" t="n">
+        <v>487</v>
+      </c>
+      <c r="K163" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L163" s="1" t="n">
@@ -15328,12 +15506,12 @@
     </row>
     <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D164" s="16" t="n">
+      <c r="D164" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E164" s="1" t="n">
@@ -15345,9 +15523,9 @@
         <v>155</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="K164" s="16" t="n">
+        <v>447</v>
+      </c>
+      <c r="K164" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L164" s="1" t="n">
@@ -15364,12 +15542,12 @@
     </row>
     <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D165" s="16" t="n">
+      <c r="D165" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E165" s="1" t="n">
@@ -15381,9 +15559,9 @@
         <v>155</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="K165" s="16" t="n">
+        <v>469</v>
+      </c>
+      <c r="K165" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L165" s="1" t="n">
@@ -15400,12 +15578,12 @@
     </row>
     <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D166" s="16" t="n">
+      <c r="D166" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E166" s="1" t="n">
@@ -15417,9 +15595,9 @@
         <v>155</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="K166" s="16" t="n">
+        <v>489</v>
+      </c>
+      <c r="K166" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L166" s="1" t="n">
@@ -15427,7 +15605,7 @@
         <v>0.000434971726837756</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N166" s="0" t="n">
         <f aca="false">RANK(K166,$K$2:$K$214)</f>
@@ -15436,12 +15614,12 @@
     </row>
     <row r="167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D167" s="16" t="n">
+      <c r="D167" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E167" s="1" t="n">
@@ -15453,9 +15631,9 @@
         <v>166</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="K167" s="16" t="n">
+        <v>491</v>
+      </c>
+      <c r="K167" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L167" s="1" t="n">
@@ -15463,7 +15641,7 @@
         <v>0.000434971726837756</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N167" s="0" t="n">
         <f aca="false">RANK(K167,$K$2:$K$214)</f>
@@ -15472,12 +15650,12 @@
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D168" s="16" t="n">
+      <c r="D168" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E168" s="1" t="n">
@@ -15489,9 +15667,9 @@
         <v>166</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="K168" s="16" t="n">
+        <v>494</v>
+      </c>
+      <c r="K168" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L168" s="1" t="n">
@@ -15508,12 +15686,12 @@
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D169" s="16" t="n">
+      <c r="D169" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E169" s="1" t="n">
@@ -15525,9 +15703,9 @@
         <v>166</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="K169" s="16" t="n">
+        <v>466</v>
+      </c>
+      <c r="K169" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L169" s="1" t="n">
@@ -15544,12 +15722,12 @@
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D170" s="16" t="n">
+      <c r="D170" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E170" s="1" t="n">
@@ -15561,9 +15739,9 @@
         <v>166</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="K170" s="16" t="n">
+        <v>461</v>
+      </c>
+      <c r="K170" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L170" s="1" t="n">
@@ -15580,12 +15758,12 @@
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D171" s="16" t="n">
+      <c r="D171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E171" s="1" t="n">
@@ -15597,9 +15775,9 @@
         <v>166</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="K171" s="16" t="n">
+        <v>498</v>
+      </c>
+      <c r="K171" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L171" s="1" t="n">
@@ -15607,7 +15785,7 @@
         <v>0.000347977381470204</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N171" s="0" t="n">
         <f aca="false">RANK(K171,$K$2:$K$214)</f>
@@ -15616,12 +15794,12 @@
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D172" s="16" t="n">
+      <c r="D172" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="1" t="n">
@@ -15633,9 +15811,9 @@
         <v>166</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="K172" s="16" t="n">
+        <v>451</v>
+      </c>
+      <c r="K172" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L172" s="1" t="n">
@@ -15652,12 +15830,12 @@
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D173" s="16" t="n">
+      <c r="D173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E173" s="1" t="n">
@@ -15669,9 +15847,9 @@
         <v>166</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="K173" s="16" t="n">
+        <v>502</v>
+      </c>
+      <c r="K173" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L173" s="1" t="n">
@@ -15679,7 +15857,7 @@
         <v>0.000347977381470204</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N173" s="0" t="n">
         <f aca="false">RANK(K173,$K$2:$K$214)</f>
@@ -15688,12 +15866,12 @@
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D174" s="16" t="n">
+      <c r="D174" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E174" s="1" t="n">
@@ -15705,9 +15883,9 @@
         <v>166</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="K174" s="16" t="n">
+        <v>504</v>
+      </c>
+      <c r="K174" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L174" s="1" t="n">
@@ -15724,12 +15902,12 @@
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D175" s="16" t="n">
+      <c r="D175" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E175" s="1" t="n">
@@ -15741,9 +15919,9 @@
         <v>166</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="K175" s="16" t="n">
+        <v>506</v>
+      </c>
+      <c r="K175" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L175" s="1" t="n">
@@ -15751,7 +15929,7 @@
         <v>0.000347977381470204</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N175" s="0" t="n">
         <f aca="false">RANK(K175,$K$2:$K$214)</f>
@@ -15760,12 +15938,12 @@
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D176" s="16" t="n">
+        <v>492</v>
+      </c>
+      <c r="D176" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E176" s="1" t="n">
@@ -15777,9 +15955,9 @@
         <v>166</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="K176" s="16" t="n">
+        <v>508</v>
+      </c>
+      <c r="K176" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L176" s="1" t="n">
@@ -15787,7 +15965,7 @@
         <v>0.000347977381470204</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N176" s="0" t="n">
         <f aca="false">RANK(K176,$K$2:$K$214)</f>
@@ -15796,12 +15974,12 @@
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D177" s="16" t="n">
+      <c r="D177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E177" s="1" t="n">
@@ -15813,9 +15991,9 @@
         <v>166</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="K177" s="16" t="n">
+        <v>510</v>
+      </c>
+      <c r="K177" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L177" s="1" t="n">
@@ -15823,7 +16001,7 @@
         <v>0.000347977381470204</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N177" s="0" t="n">
         <f aca="false">RANK(K177,$K$2:$K$214)</f>
@@ -15832,12 +16010,12 @@
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D178" s="16" t="n">
+      <c r="D178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="1" t="n">
@@ -15849,9 +16027,9 @@
         <v>166</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="K178" s="16" t="n">
+        <v>513</v>
+      </c>
+      <c r="K178" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L178" s="1" t="n">
@@ -15859,7 +16037,7 @@
         <v>0.000347977381470204</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N178" s="0" t="n">
         <f aca="false">RANK(K178,$K$2:$K$214)</f>
@@ -15868,12 +16046,12 @@
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D179" s="16" t="n">
+      <c r="D179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="1" t="n">
@@ -15887,7 +16065,7 @@
       <c r="J179" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="K179" s="16" t="n">
+      <c r="K179" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L179" s="1" t="n">
@@ -15904,12 +16082,12 @@
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D180" s="16" t="n">
+      <c r="D180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E180" s="1" t="n">
@@ -15921,9 +16099,9 @@
         <v>166</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="K180" s="16" t="n">
+        <v>517</v>
+      </c>
+      <c r="K180" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L180" s="1" t="n">
@@ -15931,7 +16109,7 @@
         <v>0.000260983036102653</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N180" s="0" t="n">
         <f aca="false">RANK(K180,$K$2:$K$214)</f>
@@ -15940,9 +16118,9 @@
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J181" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="K181" s="16" t="n">
+        <v>476</v>
+      </c>
+      <c r="K181" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L181" s="1" t="n">
@@ -15950,7 +16128,7 @@
         <v>0.000260983036102653</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N181" s="0" t="n">
         <f aca="false">RANK(K181,$K$2:$K$214)</f>
@@ -15959,9 +16137,9 @@
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J182" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="K182" s="16" t="n">
+        <v>519</v>
+      </c>
+      <c r="K182" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L182" s="1" t="n">
@@ -15969,7 +16147,7 @@
         <v>0.000260983036102653</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N182" s="0" t="n">
         <f aca="false">RANK(K182,$K$2:$K$214)</f>
@@ -15978,9 +16156,9 @@
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J183" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="K183" s="16" t="n">
+        <v>521</v>
+      </c>
+      <c r="K183" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L183" s="1" t="n">
@@ -15988,7 +16166,7 @@
         <v>0.000260983036102653</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N183" s="0" t="n">
         <f aca="false">RANK(K183,$K$2:$K$214)</f>
@@ -15997,9 +16175,9 @@
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J184" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="K184" s="16" t="n">
+        <v>523</v>
+      </c>
+      <c r="K184" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L184" s="1" t="n">
@@ -16007,7 +16185,7 @@
         <v>0.000260983036102653</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N184" s="0" t="n">
         <f aca="false">RANK(K184,$K$2:$K$214)</f>
@@ -16016,9 +16194,9 @@
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J185" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K185" s="16" t="n">
+        <v>525</v>
+      </c>
+      <c r="K185" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L185" s="1" t="n">
@@ -16026,7 +16204,7 @@
         <v>0.000260983036102653</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N185" s="0" t="n">
         <f aca="false">RANK(K185,$K$2:$K$214)</f>
@@ -16035,9 +16213,9 @@
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J186" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="K186" s="16" t="n">
+        <v>478</v>
+      </c>
+      <c r="K186" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L186" s="1" t="n">
@@ -16054,9 +16232,9 @@
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J187" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="K187" s="16" t="n">
+        <v>473</v>
+      </c>
+      <c r="K187" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L187" s="1" t="n">
@@ -16073,9 +16251,9 @@
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J188" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="K188" s="16" t="n">
+        <v>527</v>
+      </c>
+      <c r="K188" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L188" s="1" t="n">
@@ -16092,9 +16270,9 @@
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J189" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="K189" s="16" t="n">
+        <v>528</v>
+      </c>
+      <c r="K189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L189" s="1" t="n">
@@ -16102,7 +16280,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N189" s="0" t="n">
         <f aca="false">RANK(K189,$K$2:$K$214)</f>
@@ -16111,9 +16289,9 @@
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J190" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="K190" s="16" t="n">
+        <v>445</v>
+      </c>
+      <c r="K190" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L190" s="1" t="n">
@@ -16130,9 +16308,9 @@
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J191" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K191" s="16" t="n">
+        <v>530</v>
+      </c>
+      <c r="K191" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L191" s="1" t="n">
@@ -16140,7 +16318,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N191" s="0" t="n">
         <f aca="false">RANK(K191,$K$2:$K$214)</f>
@@ -16149,9 +16327,9 @@
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J192" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="K192" s="16" t="n">
+        <v>493</v>
+      </c>
+      <c r="K192" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L192" s="1" t="n">
@@ -16168,9 +16346,9 @@
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J193" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="K193" s="16" t="n">
+        <v>532</v>
+      </c>
+      <c r="K193" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L193" s="1" t="n">
@@ -16187,9 +16365,9 @@
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J194" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="K194" s="16" t="n">
+        <v>496</v>
+      </c>
+      <c r="K194" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L194" s="1" t="n">
@@ -16206,9 +16384,9 @@
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J195" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="K195" s="16" t="n">
+        <v>533</v>
+      </c>
+      <c r="K195" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L195" s="1" t="n">
@@ -16216,7 +16394,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N195" s="0" t="n">
         <f aca="false">RANK(K195,$K$2:$K$214)</f>
@@ -16225,9 +16403,9 @@
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J196" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="K196" s="16" t="n">
+        <v>535</v>
+      </c>
+      <c r="K196" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L196" s="1" t="n">
@@ -16235,7 +16413,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N196" s="0" t="n">
         <f aca="false">RANK(K196,$K$2:$K$214)</f>
@@ -16244,9 +16422,9 @@
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J197" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="K197" s="16" t="n">
+        <v>497</v>
+      </c>
+      <c r="K197" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L197" s="1" t="n">
@@ -16263,9 +16441,9 @@
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J198" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="K198" s="16" t="n">
+        <v>537</v>
+      </c>
+      <c r="K198" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L198" s="1" t="n">
@@ -16273,7 +16451,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N198" s="0" t="n">
         <f aca="false">RANK(K198,$K$2:$K$214)</f>
@@ -16282,9 +16460,9 @@
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J199" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="K199" s="16" t="n">
+        <v>500</v>
+      </c>
+      <c r="K199" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L199" s="1" t="n">
@@ -16301,9 +16479,9 @@
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J200" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="K200" s="16" t="n">
+        <v>539</v>
+      </c>
+      <c r="K200" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L200" s="1" t="n">
@@ -16311,7 +16489,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N200" s="0" t="n">
         <f aca="false">RANK(K200,$K$2:$K$214)</f>
@@ -16320,9 +16498,9 @@
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J201" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="K201" s="16" t="n">
+        <v>541</v>
+      </c>
+      <c r="K201" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L201" s="1" t="n">
@@ -16330,7 +16508,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N201" s="0" t="n">
         <f aca="false">RANK(K201,$K$2:$K$214)</f>
@@ -16339,9 +16517,9 @@
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J202" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="K202" s="16" t="n">
+        <v>501</v>
+      </c>
+      <c r="K202" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L202" s="1" t="n">
@@ -16358,9 +16536,9 @@
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J203" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="K203" s="16" t="n">
+        <v>480</v>
+      </c>
+      <c r="K203" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L203" s="1" t="n">
@@ -16368,7 +16546,7 @@
         <v>0.000173988690735102</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N203" s="0" t="n">
         <f aca="false">RANK(K203,$K$2:$K$214)</f>
@@ -16377,9 +16555,9 @@
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J204" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="K204" s="16" t="n">
+        <v>515</v>
+      </c>
+      <c r="K204" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L204" s="1" t="n">
@@ -16396,9 +16574,9 @@
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J205" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="K205" s="16" t="n">
+        <v>474</v>
+      </c>
+      <c r="K205" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L205" s="1" t="n">
@@ -16415,9 +16593,9 @@
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J206" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="K206" s="16" t="n">
+        <v>543</v>
+      </c>
+      <c r="K206" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L206" s="1" t="n">
@@ -16425,7 +16603,7 @@
         <v>8.69943453675511E-005</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N206" s="0" t="n">
         <f aca="false">RANK(K206,$K$2:$K$214)</f>
@@ -16434,9 +16612,9 @@
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J207" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="K207" s="16" t="n">
+        <v>475</v>
+      </c>
+      <c r="K207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L207" s="1" t="n">
@@ -16453,9 +16631,9 @@
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J208" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="K208" s="16" t="n">
+        <v>545</v>
+      </c>
+      <c r="K208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L208" s="1" t="n">
@@ -16463,7 +16641,7 @@
         <v>8.69943453675511E-005</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N208" s="0" t="n">
         <f aca="false">RANK(K208,$K$2:$K$214)</f>
@@ -16472,9 +16650,9 @@
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J209" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="K209" s="16" t="n">
+        <v>547</v>
+      </c>
+      <c r="K209" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L209" s="1" t="n">
@@ -16482,7 +16660,7 @@
         <v>8.69943453675511E-005</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N209" s="0" t="n">
         <f aca="false">RANK(K209,$K$2:$K$214)</f>
@@ -16491,9 +16669,9 @@
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J210" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="K210" s="16" t="n">
+        <v>495</v>
+      </c>
+      <c r="K210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L210" s="1" t="n">
@@ -16510,9 +16688,9 @@
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J211" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="K211" s="16" t="n">
+        <v>549</v>
+      </c>
+      <c r="K211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L211" s="1" t="n">
@@ -16520,7 +16698,7 @@
         <v>8.69943453675511E-005</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N211" s="0" t="n">
         <f aca="false">RANK(K211,$K$2:$K$214)</f>
@@ -16529,9 +16707,9 @@
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J212" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="K212" s="16" t="n">
+        <v>551</v>
+      </c>
+      <c r="K212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L212" s="1" t="n">
@@ -16539,7 +16717,7 @@
         <v>8.69943453675511E-005</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N212" s="0" t="n">
         <f aca="false">RANK(K212,$K$2:$K$214)</f>
@@ -16548,9 +16726,9 @@
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J213" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="K213" s="16" t="n">
+        <v>553</v>
+      </c>
+      <c r="K213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L213" s="1" t="n">
@@ -16558,7 +16736,7 @@
         <v>8.69943453675511E-005</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N213" s="0" t="n">
         <f aca="false">RANK(K213,$K$2:$K$214)</f>
@@ -16566,10 +16744,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J214" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="K214" s="20" t="n">
+      <c r="J214" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="K214" s="18" t="n">
         <v>1</v>
       </c>
       <c r="L214" s="1" t="n">
@@ -16585,8 +16763,8 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J215" s="21"/>
-      <c r="K215" s="22"/>
+      <c r="J215" s="19"/>
+      <c r="K215" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16606,11 +16784,11 @@
   </sheetPr>
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J144" activeCellId="0" sqref="J144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.66"/>
@@ -16627,7 +16805,7 @@
         <v>279</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>281</v>
@@ -16645,7 +16823,7 @@
         <v>279</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>281</v>
@@ -16661,14 +16839,14 @@
       <c r="B2" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="0" t="n">
         <v>219</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">C2/2686</f>
         <v>0.0815338793745346</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -16697,14 +16875,14 @@
       <c r="B3" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="0" t="n">
         <v>205</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">C3/2686</f>
         <v>0.0763216679076694</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -16733,14 +16911,14 @@
       <c r="B4" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="0" t="n">
         <v>157</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">C4/2686</f>
         <v>0.0584512285927029</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -16769,14 +16947,14 @@
       <c r="B5" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="0" t="n">
         <v>151</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">C5/2686</f>
         <v>0.0562174236783321</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -16805,14 +16983,14 @@
       <c r="B6" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="0" t="n">
         <v>143</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">C6/2686</f>
         <v>0.0532390171258377</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -16841,14 +17019,14 @@
       <c r="B7" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="0" t="n">
         <v>138</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">C7/2686</f>
         <v>0.0513775130305287</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -16877,14 +17055,14 @@
       <c r="B8" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="0" t="n">
         <v>132</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">C8/2686</f>
         <v>0.0491437081161579</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -16913,14 +17091,14 @@
       <c r="B9" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="0" t="n">
         <v>126</v>
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">C9/2686</f>
         <v>0.046909903201787</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -16949,14 +17127,14 @@
       <c r="B10" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="0" t="n">
         <v>117</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">C10/2686</f>
         <v>0.0435591958302308</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -16985,14 +17163,14 @@
       <c r="B11" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="0" t="n">
         <v>82</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">C11/2686</f>
         <v>0.0305286671630678</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -17021,14 +17199,14 @@
       <c r="B12" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="0" t="n">
         <v>71</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">C12/2686</f>
         <v>0.0264333581533879</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -17057,14 +17235,14 @@
       <c r="B13" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="0" t="n">
         <v>63</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">C13/2686</f>
         <v>0.0234549516008935</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -17082,7 +17260,7 @@
         <v>0.0249564712710389</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">RANK(J13,$J$2:$J$143)</f>
@@ -17093,14 +17271,14 @@
       <c r="B14" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="0" t="n">
         <v>62</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">C14/2686</f>
         <v>0.0230826507818317</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -17129,14 +17307,14 @@
       <c r="B15" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="0" t="n">
         <v>57</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">C15/2686</f>
         <v>0.0212211466865227</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -17165,14 +17343,14 @@
       <c r="B16" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="0" t="n">
         <v>52</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">C16/2686</f>
         <v>0.0193596425912137</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -17201,14 +17379,14 @@
       <c r="B17" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="0" t="n">
         <v>49</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">C17/2686</f>
         <v>0.0182427401340283</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -17237,14 +17415,14 @@
       <c r="B18" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="0" t="n">
         <v>49</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">C18/2686</f>
         <v>0.0182427401340283</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -17273,15 +17451,15 @@
       <c r="B19" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="0" t="n">
         <v>47</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">C19/2686</f>
         <v>0.0174981384959047</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>556</v>
+      <c r="E19" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">RANK(C19,$C$2:$C$118)</f>
@@ -17309,14 +17487,14 @@
       <c r="B20" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">C20/2686</f>
         <v>0.0148920327624721</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -17345,14 +17523,14 @@
       <c r="B21" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">C21/2686</f>
         <v>0.0130305286671631</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -17381,14 +17559,14 @@
       <c r="B22" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">C22/2686</f>
         <v>0.0130305286671631</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -17417,14 +17595,14 @@
       <c r="B23" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">C23/2686</f>
         <v>0.0122859270290395</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -17453,14 +17631,14 @@
       <c r="B24" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C24" s="16" t="n">
+      <c r="C24" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">C24/2686</f>
         <v>0.0119136262099777</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -17489,14 +17667,14 @@
       <c r="B25" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="16" t="n">
+      <c r="C25" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">C25/2686</f>
         <v>0.0115413253909159</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F25" s="0" t="n">
@@ -17525,14 +17703,14 @@
       <c r="B26" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">C26/2686</f>
         <v>0.0111690245718541</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="0" t="n">
@@ -17561,14 +17739,14 @@
       <c r="B27" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C27" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">C27/2686</f>
         <v>0.0100521221146687</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="0" t="n">
@@ -17595,16 +17773,16 @@
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C28" s="16" t="n">
+        <v>558</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">C28/2686</f>
         <v>0.00819061801935964</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F28" s="0" t="n">
@@ -17633,14 +17811,14 @@
       <c r="B29" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="16" t="n">
+      <c r="C29" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">C29/2686</f>
         <v>0.00781831720029784</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="0" t="n">
@@ -17667,16 +17845,16 @@
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C30" s="16" t="n">
+        <v>559</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">C30/2686</f>
         <v>0.00781831720029784</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F30" s="0" t="n">
@@ -17684,7 +17862,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>34</v>
@@ -17705,14 +17883,14 @@
       <c r="B31" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">C31/2686</f>
         <v>0.00744601638123604</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F31" s="0" t="n">
@@ -17741,14 +17919,14 @@
       <c r="B32" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D32" s="1" t="n">
         <f aca="false">C32/2686</f>
         <v>0.00670141474311243</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -17777,14 +17955,14 @@
       <c r="B33" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">C33/2686</f>
         <v>0.00595681310498883</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F33" s="0" t="n">
@@ -17813,14 +17991,14 @@
       <c r="B34" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">C34/2686</f>
         <v>0.00521221146686523</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F34" s="0" t="n">
@@ -17849,14 +18027,14 @@
       <c r="B35" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">C35/2686</f>
         <v>0.00483991064780343</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="0" t="n">
@@ -17885,14 +18063,14 @@
       <c r="B36" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="16" t="n">
+      <c r="C36" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">C36/2686</f>
         <v>0.00483991064780343</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F36" s="0" t="n">
@@ -17900,7 +18078,7 @@
         <v>34</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>21</v>
@@ -17910,7 +18088,7 @@
         <v>0.00406268136970401</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M36" s="0" t="n">
         <f aca="false">RANK(J36,$J$2:$J$143)</f>
@@ -17921,14 +18099,14 @@
       <c r="B37" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C37" s="16" t="n">
+      <c r="C37" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">C37/2686</f>
         <v>0.00483991064780343</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F37" s="0" t="n">
@@ -17957,14 +18135,14 @@
       <c r="B38" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C38" s="16" t="n">
+      <c r="C38" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">C38/2686</f>
         <v>0.00446760982874162</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F38" s="0" t="n">
@@ -17993,14 +18171,14 @@
       <c r="B39" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C39" s="16" t="n">
+      <c r="C39" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">C39/2686</f>
         <v>0.00446760982874162</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F39" s="0" t="n">
@@ -18029,14 +18207,14 @@
       <c r="B40" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C40" s="16" t="n">
+      <c r="C40" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">C40/2686</f>
         <v>0.00409530900967982</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F40" s="0" t="n">
@@ -18065,14 +18243,14 @@
       <c r="B41" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C41" s="16" t="n">
+      <c r="C41" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D41" s="1" t="n">
         <f aca="false">C41/2686</f>
         <v>0.00409530900967982</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F41" s="0" t="n">
@@ -18099,16 +18277,16 @@
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C42" s="16" t="n">
+        <v>478</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D42" s="1" t="n">
         <f aca="false">C42/2686</f>
         <v>0.00409530900967982</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F42" s="0" t="n">
@@ -18137,14 +18315,14 @@
       <c r="B43" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="n">
         <f aca="false">C43/2686</f>
         <v>0.00372300819061802</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F43" s="0" t="n">
@@ -18152,7 +18330,7 @@
         <v>42</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>19</v>
@@ -18162,7 +18340,7 @@
         <v>0.0036757593344941</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M43" s="0" t="n">
         <f aca="false">RANK(J43,$J$2:$J$143)</f>
@@ -18173,14 +18351,14 @@
       <c r="B44" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C44" s="16" t="n">
+      <c r="C44" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D44" s="1" t="n">
         <f aca="false">C44/2686</f>
         <v>0.00335070737155622</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F44" s="0" t="n">
@@ -18209,14 +18387,14 @@
       <c r="B45" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="16" t="n">
+      <c r="C45" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D45" s="1" t="n">
         <f aca="false">C45/2686</f>
         <v>0.00335070737155622</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F45" s="0" t="n">
@@ -18245,14 +18423,14 @@
       <c r="B46" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C46" s="16" t="n">
+      <c r="C46" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D46" s="1" t="n">
         <f aca="false">C46/2686</f>
         <v>0.00335070737155622</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F46" s="0" t="n">
@@ -18281,14 +18459,14 @@
       <c r="B47" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C47" s="16" t="n">
+      <c r="C47" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="n">
         <f aca="false">C47/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F47" s="0" t="n">
@@ -18315,16 +18493,16 @@
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C48" s="16" t="n">
+        <v>469</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="n">
         <f aca="false">C48/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F48" s="0" t="n">
@@ -18353,14 +18531,14 @@
       <c r="B49" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C49" s="16" t="n">
+      <c r="C49" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="n">
         <f aca="false">C49/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F49" s="0" t="n">
@@ -18389,14 +18567,14 @@
       <c r="B50" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C50" s="16" t="n">
+      <c r="C50" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="n">
         <f aca="false">C50/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F50" s="0" t="n">
@@ -18425,14 +18603,14 @@
       <c r="B51" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C51" s="16" t="n">
+      <c r="C51" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="n">
         <f aca="false">C51/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="2" t="s">
         <v>330</v>
       </c>
       <c r="F51" s="0" t="n">
@@ -18461,14 +18639,14 @@
       <c r="B52" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="16" t="n">
+      <c r="C52" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="n">
         <f aca="false">C52/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="0" t="n">
@@ -18497,14 +18675,14 @@
       <c r="B53" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C53" s="16" t="n">
+      <c r="C53" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="n">
         <f aca="false">C53/2686</f>
         <v>0.00297840655249442</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="0" t="n">
@@ -18533,14 +18711,14 @@
       <c r="B54" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C54" s="16" t="n">
+      <c r="C54" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="n">
         <f aca="false">C54/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="0" t="n">
@@ -18569,14 +18747,14 @@
       <c r="B55" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C55" s="16" t="n">
+      <c r="C55" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D55" s="1" t="n">
         <f aca="false">C55/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F55" s="0" t="n">
@@ -18605,14 +18783,14 @@
       <c r="B56" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="16" t="n">
+      <c r="C56" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D56" s="1" t="n">
         <f aca="false">C56/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F56" s="0" t="n">
@@ -18641,14 +18819,14 @@
       <c r="B57" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C57" s="16" t="n">
+      <c r="C57" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D57" s="1" t="n">
         <f aca="false">C57/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F57" s="0" t="n">
@@ -18677,14 +18855,14 @@
       <c r="B58" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C58" s="16" t="n">
+      <c r="C58" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D58" s="1" t="n">
         <f aca="false">C58/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F58" s="0" t="n">
@@ -18713,14 +18891,14 @@
       <c r="B59" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="16" t="n">
+      <c r="C59" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D59" s="1" t="n">
         <f aca="false">C59/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F59" s="0" t="n">
@@ -18749,14 +18927,14 @@
       <c r="B60" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C60" s="16" t="n">
+      <c r="C60" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="n">
         <f aca="false">C60/2686</f>
         <v>0.00260610573343261</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F60" s="0" t="n">
@@ -18785,14 +18963,14 @@
       <c r="B61" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D61" s="1" t="n">
         <f aca="false">C61/2686</f>
         <v>0.00223380491437081</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F61" s="0" t="n">
@@ -18821,14 +18999,14 @@
       <c r="B62" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C62" s="16" t="n">
+      <c r="C62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D62" s="1" t="n">
         <f aca="false">C62/2686</f>
         <v>0.00223380491437081</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F62" s="0" t="n">
@@ -18836,7 +19014,7 @@
         <v>60</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>10</v>
@@ -18846,7 +19024,7 @@
         <v>0.00193461017604953</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M62" s="0" t="n">
         <f aca="false">RANK(J62,$J$2:$J$143)</f>
@@ -18855,24 +19033,24 @@
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C63" s="16" t="n">
+        <v>560</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="n">
         <f aca="false">C63/2686</f>
         <v>0.00223380491437081</v>
       </c>
-      <c r="E63" s="23" t="s">
-        <v>560</v>
+      <c r="E63" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F63" s="0" t="n">
         <f aca="false">RANK(C63,$C$2:$C$118)</f>
         <v>60</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>10</v>
@@ -18893,14 +19071,14 @@
       <c r="B64" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="16" t="n">
+      <c r="C64" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D64" s="1" t="n">
         <f aca="false">C64/2686</f>
         <v>0.00186150409530901</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F64" s="0" t="n">
@@ -18929,14 +19107,14 @@
       <c r="B65" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="16" t="n">
+      <c r="C65" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="n">
         <f aca="false">C65/2686</f>
         <v>0.00186150409530901</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F65" s="0" t="n">
@@ -18965,14 +19143,14 @@
       <c r="B66" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="16" t="n">
+      <c r="C66" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D66" s="1" t="n">
         <f aca="false">C66/2686</f>
         <v>0.00186150409530901</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F66" s="0" t="n">
@@ -19001,14 +19179,14 @@
       <c r="B67" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C67" s="16" t="n">
+      <c r="C67" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
         <f aca="false">C67/2686</f>
         <v>0.00148920327624721</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F67" s="0" t="n">
@@ -19035,16 +19213,16 @@
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C68" s="16" t="n">
+        <v>461</v>
+      </c>
+      <c r="C68" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
         <f aca="false">C68/2686</f>
         <v>0.00148920327624721</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F68" s="0" t="n">
@@ -19073,14 +19251,14 @@
       <c r="B69" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C69" s="16" t="n">
+      <c r="C69" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="n">
         <f aca="false">C69/2686</f>
         <v>0.00148920327624721</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F69" s="0" t="n">
@@ -19088,7 +19266,7 @@
         <v>66</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>8</v>
@@ -19098,7 +19276,7 @@
         <v>0.00154768814083962</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M69" s="0" t="n">
         <f aca="false">RANK(J69,$J$2:$J$143)</f>
@@ -19109,14 +19287,14 @@
       <c r="B70" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C70" s="16" t="n">
+      <c r="C70" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="n">
         <f aca="false">C70/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F70" s="0" t="n">
@@ -19124,7 +19302,7 @@
         <v>69</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>8</v>
@@ -19145,14 +19323,14 @@
       <c r="B71" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C71" s="16" t="n">
+      <c r="C71" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="n">
         <f aca="false">C71/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F71" s="0" t="n">
@@ -19179,16 +19357,16 @@
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C72" s="16" t="n">
+        <v>447</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="n">
         <f aca="false">C72/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F72" s="0" t="n">
@@ -19196,7 +19374,7 @@
         <v>69</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>7</v>
@@ -19206,7 +19384,7 @@
         <v>0.00135422712323467</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M72" s="0" t="n">
         <f aca="false">RANK(J72,$J$2:$J$143)</f>
@@ -19217,14 +19395,14 @@
       <c r="B73" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="16" t="n">
+      <c r="C73" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="n">
         <f aca="false">C73/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F73" s="0" t="n">
@@ -19253,14 +19431,14 @@
       <c r="B74" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C74" s="16" t="n">
+      <c r="C74" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="n">
         <f aca="false">C74/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F74" s="0" t="n">
@@ -19289,14 +19467,14 @@
       <c r="B75" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="16" t="n">
+      <c r="C75" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="n">
         <f aca="false">C75/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F75" s="0" t="n">
@@ -19325,14 +19503,14 @@
       <c r="B76" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C76" s="16" t="n">
+      <c r="C76" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="n">
         <f aca="false">C76/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F76" s="0" t="n">
@@ -19359,16 +19537,16 @@
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C77" s="16" t="n">
+        <v>465</v>
+      </c>
+      <c r="C77" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="n">
         <f aca="false">C77/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F77" s="0" t="n">
@@ -19397,14 +19575,14 @@
       <c r="B78" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C78" s="16" t="n">
+      <c r="C78" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="n">
         <f aca="false">C78/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F78" s="0" t="n">
@@ -19433,14 +19611,14 @@
       <c r="B79" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C79" s="16" t="n">
+      <c r="C79" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="n">
         <f aca="false">C79/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F79" s="0" t="n">
@@ -19448,7 +19626,7 @@
         <v>69</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>6</v>
@@ -19469,14 +19647,14 @@
       <c r="B80" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C80" s="16" t="n">
+      <c r="C80" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="n">
         <f aca="false">C80/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F80" s="0" t="n">
@@ -19505,14 +19683,14 @@
       <c r="B81" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C81" s="16" t="n">
+      <c r="C81" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="n">
         <f aca="false">C81/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="2" t="s">
         <v>424</v>
       </c>
       <c r="F81" s="0" t="n">
@@ -19541,14 +19719,14 @@
       <c r="B82" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="16" t="n">
+      <c r="C82" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="n">
         <f aca="false">C82/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F82" s="0" t="n">
@@ -19577,14 +19755,14 @@
       <c r="B83" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="16" t="n">
+      <c r="C83" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="n">
         <f aca="false">C83/2686</f>
         <v>0.00111690245718541</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F83" s="0" t="n">
@@ -19611,16 +19789,16 @@
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C84" s="16" t="n">
+        <v>445</v>
+      </c>
+      <c r="C84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="n">
         <f aca="false">C84/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F84" s="0" t="n">
@@ -19647,17 +19825,17 @@
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C85" s="16" t="n">
+        <v>549</v>
+      </c>
+      <c r="C85" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D85" s="1" t="n">
         <f aca="false">C85/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E85" s="23" t="s">
-        <v>549</v>
+      <c r="E85" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="F85" s="0" t="n">
         <f aca="false">RANK(C85,$C$2:$C$118)</f>
@@ -19685,14 +19863,14 @@
       <c r="B86" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C86" s="16" t="n">
+      <c r="C86" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="n">
         <f aca="false">C86/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F86" s="0" t="n">
@@ -19721,14 +19899,14 @@
       <c r="B87" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C87" s="16" t="n">
+      <c r="C87" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D87" s="1" t="n">
         <f aca="false">C87/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F87" s="0" t="n">
@@ -19736,7 +19914,7 @@
         <v>83</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>4</v>
@@ -19757,14 +19935,14 @@
       <c r="B88" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="16" t="n">
+      <c r="C88" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D88" s="1" t="n">
         <f aca="false">C88/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F88" s="0" t="n">
@@ -19793,14 +19971,14 @@
       <c r="B89" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C89" s="16" t="n">
+      <c r="C89" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D89" s="1" t="n">
         <f aca="false">C89/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F89" s="0" t="n">
@@ -19829,14 +20007,14 @@
       <c r="B90" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C90" s="16" t="n">
+      <c r="C90" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D90" s="1" t="n">
         <f aca="false">C90/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F90" s="0" t="n">
@@ -19865,14 +20043,14 @@
       <c r="B91" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C91" s="16" t="n">
+      <c r="C91" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D91" s="1" t="n">
         <f aca="false">C91/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="2" t="s">
         <v>413</v>
       </c>
       <c r="F91" s="0" t="n">
@@ -19901,14 +20079,14 @@
       <c r="B92" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C92" s="16" t="n">
+      <c r="C92" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="1" t="n">
         <f aca="false">C92/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F92" s="0" t="n">
@@ -19937,14 +20115,14 @@
       <c r="B93" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C93" s="16" t="n">
+      <c r="C93" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D93" s="1" t="n">
         <f aca="false">C93/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F93" s="0" t="n">
@@ -19973,14 +20151,14 @@
       <c r="B94" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C94" s="16" t="n">
+      <c r="C94" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D94" s="1" t="n">
         <f aca="false">C94/2686</f>
         <v>0.000744601638123604</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F94" s="0" t="n">
@@ -20009,14 +20187,14 @@
       <c r="B95" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C95" s="16" t="n">
+      <c r="C95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="n">
         <f aca="false">C95/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F95" s="0" t="n">
@@ -20045,14 +20223,14 @@
       <c r="B96" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C96" s="16" t="n">
+      <c r="C96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="n">
         <f aca="false">C96/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F96" s="0" t="n">
@@ -20081,14 +20259,14 @@
       <c r="B97" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C97" s="16" t="n">
+      <c r="C97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="n">
         <f aca="false">C97/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F97" s="0" t="n">
@@ -20117,14 +20295,14 @@
       <c r="B98" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C98" s="16" t="n">
+      <c r="C98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="n">
         <f aca="false">C98/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F98" s="0" t="n">
@@ -20142,7 +20320,7 @@
         <v>0.000580383052814858</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M98" s="0" t="n">
         <f aca="false">RANK(J98,$J$2:$J$143)</f>
@@ -20153,14 +20331,14 @@
       <c r="B99" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C99" s="16" t="n">
+      <c r="C99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="n">
         <f aca="false">C99/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F99" s="0" t="n">
@@ -20189,14 +20367,14 @@
       <c r="B100" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="16" t="n">
+      <c r="C100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="n">
         <f aca="false">C100/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="2" t="s">
         <v>407</v>
       </c>
       <c r="F100" s="0" t="n">
@@ -20204,7 +20382,7 @@
         <v>94</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>3</v>
@@ -20214,7 +20392,7 @@
         <v>0.000580383052814858</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M100" s="0" t="n">
         <f aca="false">RANK(J100,$J$2:$J$143)</f>
@@ -20225,14 +20403,14 @@
       <c r="B101" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C101" s="16" t="n">
+      <c r="C101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="n">
         <f aca="false">C101/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F101" s="0" t="n">
@@ -20259,17 +20437,17 @@
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C102" s="16" t="n">
+        <v>471</v>
+      </c>
+      <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="n">
         <f aca="false">C102/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E102" s="23" t="s">
-        <v>471</v>
+      <c r="E102" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="F102" s="0" t="n">
         <f aca="false">RANK(C102,$C$2:$C$118)</f>
@@ -20295,16 +20473,16 @@
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C103" s="16" t="n">
+        <v>454</v>
+      </c>
+      <c r="C103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="n">
         <f aca="false">C103/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F103" s="0" t="n">
@@ -20333,14 +20511,14 @@
       <c r="B104" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C104" s="16" t="n">
+      <c r="C104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="n">
         <f aca="false">C104/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F104" s="0" t="n">
@@ -20367,17 +20545,17 @@
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C105" s="16" t="n">
+        <v>525</v>
+      </c>
+      <c r="C105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="n">
         <f aca="false">C105/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E105" s="23" t="s">
-        <v>525</v>
+      <c r="E105" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="F105" s="0" t="n">
         <f aca="false">RANK(C105,$C$2:$C$118)</f>
@@ -20405,14 +20583,14 @@
       <c r="B106" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C106" s="16" t="n">
+      <c r="C106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="n">
         <f aca="false">C106/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F106" s="0" t="n">
@@ -20441,14 +20619,14 @@
       <c r="B107" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C107" s="16" t="n">
+      <c r="C107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="n">
         <f aca="false">C107/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F107" s="0" t="n">
@@ -20456,7 +20634,7 @@
         <v>94</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J107" s="0" t="n">
         <v>3</v>
@@ -20466,7 +20644,7 @@
         <v>0.000580383052814858</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M107" s="0" t="n">
         <f aca="false">RANK(J107,$J$2:$J$143)</f>
@@ -20475,24 +20653,24 @@
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C108" s="16" t="n">
+        <v>563</v>
+      </c>
+      <c r="C108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="n">
         <f aca="false">C108/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E108" s="23" t="s">
-        <v>563</v>
+      <c r="E108" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="F108" s="0" t="n">
         <f aca="false">RANK(C108,$C$2:$C$118)</f>
         <v>94</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>2</v>
@@ -20502,7 +20680,7 @@
         <v>0.000386922035209905</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M108" s="0" t="n">
         <f aca="false">RANK(J108,$J$2:$J$143)</f>
@@ -20513,14 +20691,14 @@
       <c r="B109" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C109" s="16" t="n">
+      <c r="C109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="n">
         <f aca="false">C109/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F109" s="0" t="n">
@@ -20528,7 +20706,7 @@
         <v>94</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>2</v>
@@ -20538,7 +20716,7 @@
         <v>0.000386922035209905</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M109" s="0" t="n">
         <f aca="false">RANK(J109,$J$2:$J$143)</f>
@@ -20549,14 +20727,14 @@
       <c r="B110" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C110" s="16" t="n">
+      <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="n">
         <f aca="false">C110/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F110" s="0" t="n">
@@ -20583,24 +20761,24 @@
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C111" s="16" t="n">
+        <v>565</v>
+      </c>
+      <c r="C111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="n">
         <f aca="false">C111/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E111" s="23" t="s">
-        <v>565</v>
+      <c r="E111" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="F111" s="0" t="n">
         <f aca="false">RANK(C111,$C$2:$C$118)</f>
         <v>94</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>2</v>
@@ -20610,7 +20788,7 @@
         <v>0.000386922035209905</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M111" s="0" t="n">
         <f aca="false">RANK(J111,$J$2:$J$143)</f>
@@ -20621,14 +20799,14 @@
       <c r="B112" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C112" s="16" t="n">
+      <c r="C112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="n">
         <f aca="false">C112/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F112" s="0" t="n">
@@ -20657,14 +20835,14 @@
       <c r="B113" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C113" s="16" t="n">
+      <c r="C113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="n">
         <f aca="false">C113/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F113" s="0" t="n">
@@ -20672,7 +20850,7 @@
         <v>94</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>2</v>
@@ -20682,7 +20860,7 @@
         <v>0.000386922035209905</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M113" s="0" t="n">
         <f aca="false">RANK(J113,$J$2:$J$143)</f>
@@ -20693,14 +20871,14 @@
       <c r="B114" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C114" s="16" t="n">
+      <c r="C114" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="n">
         <f aca="false">C114/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F114" s="0" t="n">
@@ -20708,7 +20886,7 @@
         <v>94</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>2</v>
@@ -20718,7 +20896,7 @@
         <v>0.000386922035209905</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M114" s="0" t="n">
         <f aca="false">RANK(J114,$J$2:$J$143)</f>
@@ -20727,16 +20905,16 @@
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C115" s="16" t="n">
+        <v>456</v>
+      </c>
+      <c r="C115" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="n">
         <f aca="false">C115/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F115" s="0" t="n">
@@ -20765,14 +20943,14 @@
       <c r="B116" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="16" t="n">
+      <c r="C116" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="n">
         <f aca="false">C116/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F116" s="0" t="n">
@@ -20780,7 +20958,7 @@
         <v>94</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>2</v>
@@ -20790,7 +20968,7 @@
         <v>0.000386922035209905</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M116" s="0" t="n">
         <f aca="false">RANK(J116,$J$2:$J$143)</f>
@@ -20801,14 +20979,14 @@
       <c r="B117" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C117" s="16" t="n">
+      <c r="C117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="n">
         <f aca="false">C117/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F117" s="0" t="n">
@@ -20837,14 +21015,14 @@
       <c r="B118" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C118" s="16" t="n">
+      <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="n">
         <f aca="false">C118/2686</f>
         <v>0.000372300819061802</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E118" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F118" s="0" t="n">
@@ -20894,7 +21072,7 @@
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I120" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>2</v>
@@ -20970,7 +21148,7 @@
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I124" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J124" s="0" t="n">
         <v>1</v>
@@ -21027,7 +21205,7 @@
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I127" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J127" s="0" t="n">
         <v>1</v>
@@ -21084,7 +21262,7 @@
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I130" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>1</v>
@@ -21094,7 +21272,7 @@
         <v>0.000193461017604953</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M130" s="0" t="n">
         <f aca="false">RANK(J130,$J$2:$J$143)</f>
@@ -21122,7 +21300,7 @@
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I132" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J132" s="0" t="n">
         <v>1</v>
@@ -21160,7 +21338,7 @@
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I134" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J134" s="0" t="n">
         <v>1</v>
@@ -21170,7 +21348,7 @@
         <v>0.000193461017604953</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M134" s="0" t="n">
         <f aca="false">RANK(J134,$J$2:$J$143)</f>
@@ -21179,7 +21357,7 @@
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I135" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J135" s="0" t="n">
         <v>1</v>
@@ -21198,7 +21376,7 @@
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I136" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J136" s="0" t="n">
         <v>1</v>
@@ -21208,7 +21386,7 @@
         <v>0.000193461017604953</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M136" s="0" t="n">
         <f aca="false">RANK(J136,$J$2:$J$143)</f>
@@ -21217,7 +21395,7 @@
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I137" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>1</v>
@@ -21227,7 +21405,7 @@
         <v>0.000193461017604953</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M137" s="0" t="n">
         <f aca="false">RANK(J137,$J$2:$J$143)</f>
@@ -21312,7 +21490,7 @@
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I142" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J142" s="0" t="n">
         <v>1</v>
@@ -21348,13 +21526,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="J144" s="0" t="n">
-        <v>5169</v>
-      </c>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -21374,11 +21547,11 @@
   </sheetPr>
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.66"/>
@@ -21394,7 +21567,7 @@
         <v>279</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>281</v>
@@ -21412,7 +21585,7 @@
         <v>279</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>281</v>
@@ -21515,7 +21688,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>2</v>
@@ -21633,7 +21806,7 @@
         <v>0.0125</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">RANK(J7,$J$2:$J$153)</f>
@@ -21659,7 +21832,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>3</v>
@@ -21669,7 +21842,7 @@
         <v>0.000426136363636364</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">RANK(J8,$J$2:$J$153)</f>
@@ -21731,7 +21904,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>3</v>
@@ -21947,7 +22120,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>2</v>
@@ -21957,7 +22130,7 @@
         <v>0.000284090909090909</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M16" s="0" t="n">
         <f aca="false">RANK(J16,$J$2:$J$153)</f>
@@ -22228,7 +22401,7 @@
         <v>0.012512030798845</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">RANK(C24,$C$2:$C$127)</f>
@@ -22271,7 +22444,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>3</v>
@@ -22281,7 +22454,7 @@
         <v>0.000426136363636364</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M25" s="0" t="n">
         <f aca="false">RANK(J25,$J$2:$J$153)</f>
@@ -22559,7 +22732,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>8</v>
@@ -22569,7 +22742,7 @@
         <v>0.00113636363636364</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M33" s="0" t="n">
         <f aca="false">RANK(J33,$J$2:$J$153)</f>
@@ -22811,7 +22984,7 @@
         <v>38</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1</v>
@@ -22883,7 +23056,7 @@
         <v>41</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>10</v>
@@ -22893,7 +23066,7 @@
         <v>0.00142045454545455</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M42" s="0" t="n">
         <f aca="false">RANK(J42,$J$2:$J$153)</f>
@@ -23010,7 +23183,7 @@
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>11</v>
@@ -23063,7 +23236,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>2</v>
@@ -23073,7 +23246,7 @@
         <v>0.000284090909090909</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M47" s="0" t="n">
         <f aca="false">RANK(J47,$J$2:$J$153)</f>
@@ -23099,7 +23272,7 @@
         <v>46</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>3</v>
@@ -23135,7 +23308,7 @@
         <v>46</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>1</v>
@@ -23171,7 +23344,7 @@
         <v>46</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>1</v>
@@ -23181,7 +23354,7 @@
         <v>0.000142045454545455</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M50" s="0" t="n">
         <f aca="false">RANK(J50,$J$2:$J$153)</f>
@@ -23279,7 +23452,7 @@
         <v>51</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>1</v>
@@ -23351,7 +23524,7 @@
         <v>54</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>6</v>
@@ -23387,7 +23560,7 @@
         <v>54</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>3</v>
@@ -23397,7 +23570,7 @@
         <v>0.000426136363636364</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M56" s="0" t="n">
         <f aca="false">RANK(J56,$J$2:$J$153)</f>
@@ -23406,7 +23579,7 @@
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>7</v>
@@ -23416,14 +23589,14 @@
         <v>0.00168431183830606</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F57" s="0" t="n">
         <f aca="false">RANK(C57,$C$2:$C$127)</f>
         <v>54</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>4</v>
@@ -23567,7 +23740,7 @@
         <v>58</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>2</v>
@@ -23577,7 +23750,7 @@
         <v>0.000284090909090909</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M61" s="0" t="n">
         <f aca="false">RANK(J61,$J$2:$J$153)</f>
@@ -23766,7 +23939,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>5</v>
@@ -23792,7 +23965,7 @@
         <f aca="false">J67/7040</f>
         <v>0.000142045454545455</v>
       </c>
-      <c r="L67" s="24" t="s">
+      <c r="L67" s="21" t="s">
         <v>572</v>
       </c>
       <c r="M67" s="0" t="n">
@@ -23891,7 +24064,7 @@
         <v>64</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>2</v>
@@ -23901,7 +24074,7 @@
         <v>0.000284090909090909</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M70" s="0" t="n">
         <f aca="false">RANK(J70,$J$2:$J$153)</f>
@@ -23937,7 +24110,7 @@
         <v>0.000284090909090909</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M71" s="0" t="n">
         <f aca="false">RANK(J71,$J$2:$J$153)</f>
@@ -24071,7 +24244,7 @@
         <v>71</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>1</v>
@@ -24081,7 +24254,7 @@
         <v>0.000142045454545455</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M75" s="0" t="n">
         <f aca="false">RANK(J75,$J$2:$J$153)</f>
@@ -24107,7 +24280,7 @@
         <v>71</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>4</v>
@@ -24117,7 +24290,7 @@
         <v>0.000568181818181818</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M76" s="0" t="n">
         <f aca="false">RANK(J76,$J$2:$J$153)</f>
@@ -24270,7 +24443,7 @@
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>3</v>
@@ -24342,7 +24515,7 @@
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>3</v>
@@ -24352,7 +24525,7 @@
         <v>0.000721847930702599</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F83" s="0" t="n">
         <f aca="false">RANK(C83,$C$2:$C$127)</f>
@@ -24378,7 +24551,7 @@
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>2</v>
@@ -24450,7 +24623,7 @@
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2</v>
@@ -24539,7 +24712,7 @@
         <v>83</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>1</v>
@@ -24575,7 +24748,7 @@
         <v>83</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J89" s="0" t="n">
         <v>1</v>
@@ -24585,7 +24758,7 @@
         <v>0.000142045454545455</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M89" s="0" t="n">
         <f aca="false">RANK(J89,$J$2:$J$153)</f>
@@ -24611,7 +24784,7 @@
         <v>83</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>1</v>
@@ -24621,7 +24794,7 @@
         <v>0.000142045454545455</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M90" s="0" t="n">
         <f aca="false">RANK(J90,$J$2:$J$153)</f>
@@ -24702,7 +24875,7 @@
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -24827,7 +25000,7 @@
         <v>83</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>5</v>
@@ -24846,7 +25019,7 @@
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2</v>
@@ -24856,7 +25029,7 @@
         <v>0.000481231953801732</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F97" s="0" t="n">
         <f aca="false">RANK(C97,$C$2:$C$127)</f>
@@ -24882,7 +25055,7 @@
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2</v>
@@ -24892,7 +25065,7 @@
         <v>0.000481231953801732</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F98" s="0" t="n">
         <f aca="false">RANK(C98,$C$2:$C$127)</f>
@@ -24954,7 +25127,7 @@
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>1</v>
@@ -25062,7 +25235,7 @@
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>1</v>
@@ -25072,14 +25245,14 @@
         <v>0.000240615976900866</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F103" s="0" t="n">
         <f aca="false">RANK(C103,$C$2:$C$127)</f>
         <v>98</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J103" s="0" t="n">
         <v>1</v>
@@ -25278,7 +25451,7 @@
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1</v>
@@ -25314,7 +25487,7 @@
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
@@ -25350,7 +25523,7 @@
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>1</v>
@@ -25360,7 +25533,7 @@
         <v>0.000240615976900866</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F111" s="0" t="n">
         <f aca="false">RANK(C111,$C$2:$C$127)</f>
@@ -25422,7 +25595,7 @@
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>1</v>
@@ -25439,7 +25612,7 @@
         <v>98</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>1</v>
@@ -25468,7 +25641,7 @@
         <v>0.000240615976900866</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F114" s="0" t="n">
         <f aca="false">RANK(C114,$C$2:$C$127)</f>
@@ -25530,7 +25703,7 @@
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>1</v>
@@ -25566,7 +25739,7 @@
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>1</v>
@@ -25619,7 +25792,7 @@
         <v>98</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>5</v>
@@ -25638,7 +25811,7 @@
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>1</v>
@@ -25674,7 +25847,7 @@
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>1</v>
@@ -25727,7 +25900,7 @@
         <v>98</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>1</v>
@@ -25782,7 +25955,7 @@
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>1</v>
@@ -25845,7 +26018,7 @@
         <v>0.000142045454545455</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M124" s="0" t="n">
         <f aca="false">RANK(J124,$J$2:$J$153)</f>
@@ -25962,7 +26135,7 @@
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>4156</v>
@@ -26006,7 +26179,7 @@
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I130" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>2</v>
@@ -26139,7 +26312,7 @@
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I137" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>2</v>
@@ -26196,7 +26369,7 @@
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I140" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J140" s="0" t="n">
         <v>4</v>
@@ -26206,7 +26379,7 @@
         <v>0.000568181818181818</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M140" s="0" t="n">
         <f aca="false">RANK(J140,$J$2:$J$153)</f>
@@ -26234,7 +26407,7 @@
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I142" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J142" s="0" t="n">
         <v>4</v>
